--- a/api_doc/it服务平台.xlsx
+++ b/api_doc/it服务平台.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
   <si>
     <t>接口文档</t>
   </si>
@@ -299,6 +299,12 @@
     <t>角色：1公司，2专家</t>
   </si>
   <si>
+    <t>退出登录（可用）</t>
+  </si>
+  <si>
+    <t>{HOST}/user/logout</t>
+  </si>
+  <si>
     <t>公司列表(可用)</t>
   </si>
   <si>
@@ -431,6 +437,12 @@
     <t>专长数组</t>
   </si>
   <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>地区距离</t>
+  </si>
+  <si>
     <t>comment_level</t>
   </si>
   <si>
@@ -443,6 +455,12 @@
     <t>{HOST}/user/expert-detail?uid={$uid}</t>
   </si>
   <si>
+    <t>skill_name</t>
+  </si>
+  <si>
+    <t>专长名称</t>
+  </si>
+  <si>
     <t>工作年限</t>
   </si>
   <si>
@@ -500,7 +518,7 @@
     <t>需求列表（可用）</t>
   </si>
   <si>
-    <t>{HOST}/task/list?uid={$uid}&amp;status={$status}&amp;srot={$sort}&amp;from={$from}&amp;limit={$limit}</t>
+    <t>{HOST}/task/list?uid={$uid}&amp;status={$status}&amp;srot={$sort}&amp;from={$from}&amp;limit={$limit}&amp;area={$area}&amp;area_x={$area_x}&amp;area_y={$area_y}</t>
   </si>
   <si>
     <t>status</t>
@@ -509,7 +527,16 @@
     <t>状态，0已发布，1进行中，2已完成，9全部</t>
   </si>
   <si>
-    <t>排序方式，默认按时间排序，1按悬赏金额排序</t>
+    <t>排序方式，默认按时间排序，1按悬赏金额排序，2信用，3距离</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>当前纬度</t>
+  </si>
+  <si>
+    <t>当前经度</t>
   </si>
   <si>
     <t>task_id</t>
@@ -566,6 +593,12 @@
     <t>分类id</t>
   </si>
   <si>
+    <t>cat_name</t>
+  </si>
+  <si>
+    <t>分类名称</t>
+  </si>
+  <si>
     <t>发布新需求（可用）</t>
   </si>
   <si>
@@ -581,9 +614,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>分类</t>
-  </si>
-  <si>
     <t>tips</t>
   </si>
   <si>
@@ -620,6 +650,9 @@
     <t>公司评级</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>邮件</t>
   </si>
   <si>
@@ -674,6 +707,9 @@
     <t>专家提交申请（可用）</t>
   </si>
   <si>
+    <t>{HOST}/task/expert-apply</t>
+  </si>
+  <si>
     <t>申请专家列表（可用）</t>
   </si>
   <si>
@@ -698,7 +734,34 @@
     <t>父级id，为0是顶级</t>
   </si>
   <si>
-    <t>专长名称</t>
+    <t>公司的需求列表（可用）</t>
+  </si>
+  <si>
+    <t>{HOST}/task/company-task-list?uid={$uid}</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>e_comment_level</t>
+  </si>
+  <si>
+    <t>评论等级</t>
+  </si>
+  <si>
+    <t>专家的需求列表（可用）</t>
+  </si>
+  <si>
+    <t>{HOST}/task/expert-task-list?uid={$uid}&amp;from={$from}&amp;limit={$limit}&amp;status={$status}</t>
+  </si>
+  <si>
+    <t>company_id</t>
   </si>
   <si>
     <t>地图上获取公司数据-心跳更新</t>
@@ -2148,7 +2211,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J391"/>
+  <dimension ref="A2:J436"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
@@ -3633,17 +3696,23 @@
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
     </row>
-    <row r="76" ht="20.35" customHeight="1">
-      <c r="A76" s="14"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
+    <row r="76" ht="49.75" customHeight="1">
+      <c r="A76" t="s" s="8">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s" s="9">
+        <v>87</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="11"/>
     </row>
     <row r="77" ht="20.35" customHeight="1">
       <c r="A77" s="14"/>
@@ -3731,13 +3800,13 @@
     </row>
     <row r="84" ht="32.35" customHeight="1">
       <c r="A84" t="s" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s" s="9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -3774,7 +3843,7 @@
     <row r="86" ht="20.35" customHeight="1">
       <c r="A86" s="14"/>
       <c r="B86" t="s" s="10">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s" s="10">
         <v>40</v>
@@ -3786,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
@@ -3796,7 +3865,7 @@
     <row r="87" ht="20.35" customHeight="1">
       <c r="A87" s="14"/>
       <c r="B87" t="s" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s" s="10">
         <v>40</v>
@@ -3808,7 +3877,7 @@
         <v>10</v>
       </c>
       <c r="F87" t="s" s="10">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
@@ -3818,7 +3887,7 @@
     <row r="88" ht="20.35" customHeight="1">
       <c r="A88" s="14"/>
       <c r="B88" t="s" s="10">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C88" t="s" s="10">
         <v>40</v>
@@ -3828,7 +3897,7 @@
       </c>
       <c r="E88" s="13"/>
       <c r="F88" t="s" s="10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
@@ -3890,13 +3959,13 @@
     <row r="92" ht="20.35" customHeight="1">
       <c r="A92" s="14"/>
       <c r="B92" t="s" s="10">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D92" t="s" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
@@ -3908,7 +3977,7 @@
     <row r="93" ht="20.35" customHeight="1">
       <c r="A93" s="14"/>
       <c r="B93" t="s" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s" s="10">
         <v>13</v>
@@ -3926,7 +3995,7 @@
     <row r="94" ht="20.35" customHeight="1">
       <c r="A94" s="14"/>
       <c r="B94" t="s" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s" s="10">
         <v>13</v>
@@ -3944,13 +4013,13 @@
     <row r="95" ht="20.35" customHeight="1">
       <c r="A95" s="14"/>
       <c r="B95" t="s" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D95" t="s" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
@@ -3962,13 +4031,13 @@
     <row r="96" ht="20.35" customHeight="1">
       <c r="A96" s="14"/>
       <c r="B96" t="s" s="10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C96" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D96" t="s" s="10">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
@@ -4051,13 +4120,13 @@
     </row>
     <row r="101" ht="32.35" customHeight="1">
       <c r="A101" t="s" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C101" t="s" s="9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
@@ -4176,7 +4245,7 @@
     <row r="107" ht="20.35" customHeight="1">
       <c r="A107" s="14"/>
       <c r="B107" t="s" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C107" t="s" s="10">
         <v>13</v>
@@ -4194,7 +4263,7 @@
     <row r="108" ht="20.35" customHeight="1">
       <c r="A108" s="14"/>
       <c r="B108" t="s" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s" s="10">
         <v>13</v>
@@ -4212,13 +4281,13 @@
     <row r="109" ht="20.35" customHeight="1">
       <c r="A109" s="14"/>
       <c r="B109" t="s" s="10">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C109" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D109" t="s" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -4230,13 +4299,13 @@
     <row r="110" ht="20.35" customHeight="1">
       <c r="A110" s="14"/>
       <c r="B110" t="s" s="10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D110" t="s" s="10">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
@@ -4308,7 +4377,7 @@
         <v>13</v>
       </c>
       <c r="D114" t="s" s="10">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
@@ -4326,7 +4395,7 @@
         <v>13</v>
       </c>
       <c r="D115" t="s" s="10">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
@@ -4344,7 +4413,7 @@
         <v>13</v>
       </c>
       <c r="D116" t="s" s="10">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
@@ -4374,13 +4443,13 @@
     <row r="118" ht="20.35" customHeight="1">
       <c r="A118" s="14"/>
       <c r="B118" t="s" s="10">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C118" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D118" t="s" s="10">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
@@ -4392,13 +4461,13 @@
     <row r="119" ht="20.35" customHeight="1">
       <c r="A119" s="14"/>
       <c r="B119" t="s" s="10">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C119" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D119" t="s" s="10">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
@@ -4445,13 +4514,13 @@
     </row>
     <row r="122" ht="49.75" customHeight="1">
       <c r="A122" t="s" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s" s="9">
         <v>4</v>
       </c>
       <c r="C122" t="s" s="9">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
@@ -4787,13 +4856,13 @@
     </row>
     <row r="139" ht="49.75" customHeight="1">
       <c r="A139" t="s" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B139" t="s" s="9">
         <v>4</v>
       </c>
       <c r="C139" t="s" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
@@ -5149,13 +5218,13 @@
     </row>
     <row r="157" ht="49.75" customHeight="1">
       <c r="A157" t="s" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B157" t="s" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C157" t="s" s="9">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D157" s="10"/>
       <c r="E157" s="10"/>
@@ -5192,7 +5261,7 @@
     <row r="159" ht="20.35" customHeight="1">
       <c r="A159" s="14"/>
       <c r="B159" t="s" s="10">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C159" t="s" s="10">
         <v>40</v>
@@ -5204,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="s" s="10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G159" s="13"/>
       <c r="H159" s="13"/>
@@ -5214,7 +5283,7 @@
     <row r="160" ht="20.35" customHeight="1">
       <c r="A160" s="14"/>
       <c r="B160" t="s" s="10">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C160" t="s" s="10">
         <v>40</v>
@@ -5226,7 +5295,7 @@
         <v>10</v>
       </c>
       <c r="F160" t="s" s="10">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G160" s="13"/>
       <c r="H160" s="13"/>
@@ -5236,7 +5305,7 @@
     <row r="161" ht="54.9" customHeight="1">
       <c r="A161" s="14"/>
       <c r="B161" t="s" s="10">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C161" t="s" s="10">
         <v>40</v>
@@ -5246,7 +5315,7 @@
       </c>
       <c r="E161" s="13"/>
       <c r="F161" t="s" s="10">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G161" s="13"/>
       <c r="H161" s="13"/>
@@ -5256,7 +5325,7 @@
     <row r="162" ht="52.6" customHeight="1">
       <c r="A162" s="14"/>
       <c r="B162" t="s" s="10">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C162" t="s" s="10">
         <v>13</v>
@@ -5266,7 +5335,7 @@
       </c>
       <c r="E162" s="13"/>
       <c r="F162" t="s" s="10">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G162" s="13"/>
       <c r="H162" s="13"/>
@@ -5286,7 +5355,7 @@
       </c>
       <c r="E163" s="13"/>
       <c r="F163" t="s" s="10">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G163" s="13"/>
       <c r="H163" s="13"/>
@@ -5336,13 +5405,13 @@
     <row r="166" ht="20.35" customHeight="1">
       <c r="A166" s="14"/>
       <c r="B166" t="s" s="10">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C166" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D166" t="s" s="10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E166" s="13"/>
       <c r="F166" s="13"/>
@@ -5354,7 +5423,7 @@
     <row r="167" ht="20.35" customHeight="1">
       <c r="A167" s="14"/>
       <c r="B167" t="s" s="10">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C167" t="s" s="10">
         <v>13</v>
@@ -5372,7 +5441,7 @@
     <row r="168" ht="20.35" customHeight="1">
       <c r="A168" s="14"/>
       <c r="B168" t="s" s="10">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C168" t="s" s="10">
         <v>13</v>
@@ -5390,13 +5459,13 @@
     <row r="169" ht="20.35" customHeight="1">
       <c r="A169" s="14"/>
       <c r="B169" t="s" s="10">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C169" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D169" t="s" s="10">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E169" s="13"/>
       <c r="F169" s="13"/>
@@ -5408,13 +5477,13 @@
     <row r="170" ht="20.35" customHeight="1">
       <c r="A170" s="14"/>
       <c r="B170" t="s" s="10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C170" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D170" t="s" s="10">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E170" s="13"/>
       <c r="F170" s="13"/>
@@ -5426,13 +5495,13 @@
     <row r="171" ht="20.35" customHeight="1">
       <c r="A171" s="14"/>
       <c r="B171" t="s" s="10">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C171" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D171" t="s" s="10">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E171" s="13"/>
       <c r="F171" s="13"/>
@@ -5450,7 +5519,7 @@
         <v>13</v>
       </c>
       <c r="D172" t="s" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E172" s="13"/>
       <c r="F172" s="13"/>
@@ -5570,13 +5639,13 @@
     <row r="179" ht="20.35" customHeight="1">
       <c r="A179" s="14"/>
       <c r="B179" t="s" s="10">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="C179" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D179" t="s" s="10">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
@@ -5588,13 +5657,13 @@
     <row r="180" ht="20.35" customHeight="1">
       <c r="A180" s="14"/>
       <c r="B180" t="s" s="10">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="C180" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D180" t="s" s="10">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="E180" s="13"/>
       <c r="F180" s="13"/>
@@ -5603,62 +5672,60 @@
       <c r="I180" s="13"/>
       <c r="J180" s="13"/>
     </row>
-    <row r="181" ht="32.35" customHeight="1">
-      <c r="A181" t="s" s="8">
-        <v>132</v>
-      </c>
-      <c r="B181" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="C181" t="s" s="9">
-        <v>133</v>
-      </c>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
-      <c r="H181" s="11"/>
-      <c r="I181" s="11"/>
-      <c r="J181" s="11"/>
-    </row>
-    <row r="182" ht="20.35" customHeight="1">
-      <c r="A182" t="s" s="12">
+    <row r="181" ht="20.35" customHeight="1">
+      <c r="A181" s="14"/>
+      <c r="B181" t="s" s="10">
+        <v>134</v>
+      </c>
+      <c r="C181" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D181" t="s" s="10">
+        <v>135</v>
+      </c>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="13"/>
+    </row>
+    <row r="182" ht="32.35" customHeight="1">
+      <c r="A182" t="s" s="8">
+        <v>136</v>
+      </c>
+      <c r="B182" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="C182" t="s" s="9">
+        <v>137</v>
+      </c>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="11"/>
+      <c r="J182" s="11"/>
+    </row>
+    <row r="183" ht="20.35" customHeight="1">
+      <c r="A183" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="B182" t="s" s="7">
+      <c r="B183" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C182" t="s" s="7">
+      <c r="C183" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="D182" t="s" s="7">
+      <c r="D183" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="E182" t="s" s="7">
+      <c r="E183" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="F182" t="s" s="7">
+      <c r="F183" t="s" s="7">
         <v>11</v>
-      </c>
-      <c r="G182" s="13"/>
-      <c r="H182" s="13"/>
-      <c r="I182" s="13"/>
-      <c r="J182" s="13"/>
-    </row>
-    <row r="183" ht="20.35" customHeight="1">
-      <c r="A183" s="14"/>
-      <c r="B183" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="C183" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D183" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="E183" s="13"/>
-      <c r="F183" t="s" s="10">
-        <v>73</v>
       </c>
       <c r="G183" s="13"/>
       <c r="H183" s="13"/>
@@ -5666,42 +5733,42 @@
       <c r="J183" s="13"/>
     </row>
     <row r="184" ht="20.35" customHeight="1">
-      <c r="A184" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B184" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C184" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D184" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E184" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="F184" s="13"/>
+      <c r="A184" s="14"/>
+      <c r="B184" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="C184" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D184" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E184" s="13"/>
+      <c r="F184" t="s" s="10">
+        <v>73</v>
+      </c>
       <c r="G184" s="13"/>
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
       <c r="J184" s="13"/>
     </row>
     <row r="185" ht="20.35" customHeight="1">
-      <c r="A185" s="14"/>
-      <c r="B185" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="C185" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D185" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="E185" s="13"/>
-      <c r="F185" t="s" s="10">
-        <v>45</v>
-      </c>
+      <c r="A185" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B185" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C185" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D185" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E185" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="F185" s="13"/>
       <c r="G185" s="13"/>
       <c r="H185" s="13"/>
       <c r="I185" s="13"/>
@@ -5710,17 +5777,17 @@
     <row r="186" ht="20.35" customHeight="1">
       <c r="A186" s="14"/>
       <c r="B186" t="s" s="10">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C186" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D186" t="s" s="10">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E186" s="13"/>
       <c r="F186" t="s" s="10">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G186" s="13"/>
       <c r="H186" s="13"/>
@@ -5730,16 +5797,18 @@
     <row r="187" ht="20.35" customHeight="1">
       <c r="A187" s="14"/>
       <c r="B187" t="s" s="10">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="C187" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D187" t="s" s="10">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E187" s="13"/>
-      <c r="F187" s="13"/>
+      <c r="F187" t="s" s="10">
+        <v>47</v>
+      </c>
       <c r="G187" s="13"/>
       <c r="H187" s="13"/>
       <c r="I187" s="13"/>
@@ -5748,13 +5817,13 @@
     <row r="188" ht="20.35" customHeight="1">
       <c r="A188" s="14"/>
       <c r="B188" t="s" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C188" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D188" t="s" s="10">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E188" s="13"/>
       <c r="F188" s="13"/>
@@ -5766,13 +5835,13 @@
     <row r="189" ht="20.35" customHeight="1">
       <c r="A189" s="14"/>
       <c r="B189" t="s" s="10">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C189" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D189" t="s" s="10">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E189" s="13"/>
       <c r="F189" s="13"/>
@@ -5787,7 +5856,7 @@
         <v>101</v>
       </c>
       <c r="C190" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D190" t="s" s="10">
         <v>102</v>
@@ -5802,13 +5871,13 @@
     <row r="191" ht="20.35" customHeight="1">
       <c r="A191" s="14"/>
       <c r="B191" t="s" s="10">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C191" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D191" t="s" s="10">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="E191" s="13"/>
       <c r="F191" s="13"/>
@@ -5820,13 +5889,13 @@
     <row r="192" ht="20.35" customHeight="1">
       <c r="A192" s="14"/>
       <c r="B192" t="s" s="10">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C192" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D192" t="s" s="10">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="E192" s="13"/>
       <c r="F192" s="13"/>
@@ -5838,13 +5907,13 @@
     <row r="193" ht="20.35" customHeight="1">
       <c r="A193" s="14"/>
       <c r="B193" t="s" s="10">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="C193" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D193" t="s" s="10">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="E193" s="13"/>
       <c r="F193" s="13"/>
@@ -5856,13 +5925,13 @@
     <row r="194" ht="20.35" customHeight="1">
       <c r="A194" s="14"/>
       <c r="B194" t="s" s="10">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C194" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D194" t="s" s="10">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E194" s="13"/>
       <c r="F194" s="13"/>
@@ -5874,13 +5943,13 @@
     <row r="195" ht="20.35" customHeight="1">
       <c r="A195" s="14"/>
       <c r="B195" t="s" s="10">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C195" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D195" t="s" s="10">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="E195" s="13"/>
       <c r="F195" s="13"/>
@@ -5892,13 +5961,13 @@
     <row r="196" ht="20.35" customHeight="1">
       <c r="A196" s="14"/>
       <c r="B196" t="s" s="10">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C196" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D196" t="s" s="10">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="E196" s="13"/>
       <c r="F196" s="13"/>
@@ -5910,13 +5979,13 @@
     <row r="197" ht="20.35" customHeight="1">
       <c r="A197" s="14"/>
       <c r="B197" t="s" s="10">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C197" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D197" t="s" s="10">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
@@ -5928,13 +5997,13 @@
     <row r="198" ht="20.35" customHeight="1">
       <c r="A198" s="14"/>
       <c r="B198" t="s" s="10">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C198" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D198" t="s" s="10">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E198" s="13"/>
       <c r="F198" s="13"/>
@@ -5946,13 +6015,13 @@
     <row r="199" ht="20.35" customHeight="1">
       <c r="A199" s="14"/>
       <c r="B199" t="s" s="10">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C199" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D199" t="s" s="10">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="E199" s="13"/>
       <c r="F199" s="13"/>
@@ -5964,10 +6033,10 @@
     <row r="200" ht="20.35" customHeight="1">
       <c r="A200" s="14"/>
       <c r="B200" t="s" s="10">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="C200" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D200" t="s" s="10">
         <v>114</v>
@@ -5979,43 +6048,37 @@
       <c r="I200" s="13"/>
       <c r="J200" s="13"/>
     </row>
-    <row r="201" ht="70.75" customHeight="1">
-      <c r="A201" t="s" s="8">
-        <v>135</v>
-      </c>
-      <c r="B201" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="C201" t="s" s="9">
-        <v>136</v>
-      </c>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="11"/>
-      <c r="I201" s="11"/>
-      <c r="J201" s="11"/>
+    <row r="201" ht="20.35" customHeight="1">
+      <c r="A201" s="14"/>
+      <c r="B201" t="s" s="10">
+        <v>129</v>
+      </c>
+      <c r="C201" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D201" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13"/>
+      <c r="G201" s="13"/>
+      <c r="H201" s="13"/>
+      <c r="I201" s="13"/>
+      <c r="J201" s="13"/>
     </row>
     <row r="202" ht="20.35" customHeight="1">
-      <c r="A202" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B202" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C202" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D202" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E202" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F202" t="s" s="7">
-        <v>11</v>
-      </c>
+      <c r="A202" s="14"/>
+      <c r="B202" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="C202" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D202" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
       <c r="G202" s="13"/>
       <c r="H202" s="13"/>
       <c r="I202" s="13"/>
@@ -6024,57 +6087,57 @@
     <row r="203" ht="20.35" customHeight="1">
       <c r="A203" s="14"/>
       <c r="B203" t="s" s="10">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C203" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D203" t="s" s="10">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="E203" s="13"/>
-      <c r="F203" t="s" s="10">
-        <v>58</v>
-      </c>
+      <c r="F203" s="13"/>
       <c r="G203" s="13"/>
       <c r="H203" s="13"/>
       <c r="I203" s="13"/>
       <c r="J203" s="13"/>
     </row>
-    <row r="204" ht="20.35" customHeight="1">
-      <c r="A204" s="14"/>
-      <c r="B204" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="C204" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D204" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="E204" s="13"/>
-      <c r="F204" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="G204" s="13"/>
-      <c r="H204" s="13"/>
-      <c r="I204" s="13"/>
-      <c r="J204" s="13"/>
+    <row r="204" ht="70.75" customHeight="1">
+      <c r="A204" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="B204" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C204" t="s" s="9">
+        <v>142</v>
+      </c>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="11"/>
+      <c r="J204" s="11"/>
     </row>
     <row r="205" ht="20.35" customHeight="1">
-      <c r="A205" s="14"/>
-      <c r="B205" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="C205" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D205" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="E205" s="13"/>
-      <c r="F205" t="s" s="10">
-        <v>47</v>
+      <c r="A205" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B205" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C205" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D205" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E205" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F205" t="s" s="7">
+        <v>11</v>
       </c>
       <c r="G205" s="13"/>
       <c r="H205" s="13"/>
@@ -6082,66 +6145,68 @@
       <c r="J205" s="13"/>
     </row>
     <row r="206" ht="20.35" customHeight="1">
-      <c r="A206" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B206" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C206" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D206" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E206" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="F206" s="13"/>
+      <c r="A206" s="14"/>
+      <c r="B206" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="C206" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D206" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E206" s="13"/>
+      <c r="F206" t="s" s="10">
+        <v>58</v>
+      </c>
       <c r="G206" s="13"/>
       <c r="H206" s="13"/>
       <c r="I206" s="13"/>
       <c r="J206" s="13"/>
     </row>
-    <row r="207" ht="32.6" customHeight="1">
+    <row r="207" ht="20.35" customHeight="1">
       <c r="A207" s="14"/>
       <c r="B207" t="s" s="10">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C207" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D207" t="s" s="10">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="E207" s="13"/>
-      <c r="F207" s="13"/>
+      <c r="F207" t="s" s="10">
+        <v>45</v>
+      </c>
       <c r="G207" s="13"/>
       <c r="H207" s="13"/>
       <c r="I207" s="13"/>
       <c r="J207" s="13"/>
     </row>
-    <row r="208" ht="70.75" customHeight="1">
-      <c r="A208" t="s" s="8">
-        <v>137</v>
-      </c>
-      <c r="B208" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="C208" t="s" s="9">
-        <v>138</v>
-      </c>
-      <c r="D208" s="10"/>
-      <c r="E208" s="10"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
-      <c r="H208" s="11"/>
-      <c r="I208" s="11"/>
-      <c r="J208" s="11"/>
+    <row r="208" ht="20.35" customHeight="1">
+      <c r="A208" s="14"/>
+      <c r="B208" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="C208" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D208" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E208" s="13"/>
+      <c r="F208" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="G208" s="13"/>
+      <c r="H208" s="13"/>
+      <c r="I208" s="13"/>
+      <c r="J208" s="13"/>
     </row>
     <row r="209" ht="20.35" customHeight="1">
       <c r="A209" t="s" s="12">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B209" t="s" s="7">
         <v>7</v>
@@ -6150,73 +6215,71 @@
         <v>8</v>
       </c>
       <c r="D209" t="s" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F209" t="s" s="7">
-        <v>11</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F209" s="13"/>
       <c r="G209" s="13"/>
       <c r="H209" s="13"/>
       <c r="I209" s="13"/>
       <c r="J209" s="13"/>
     </row>
-    <row r="210" ht="20.35" customHeight="1">
+    <row r="210" ht="32.6" customHeight="1">
       <c r="A210" s="14"/>
       <c r="B210" t="s" s="10">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C210" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D210" t="s" s="10">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E210" s="13"/>
-      <c r="F210" t="s" s="10">
-        <v>58</v>
-      </c>
+      <c r="F210" s="13"/>
       <c r="G210" s="13"/>
       <c r="H210" s="13"/>
       <c r="I210" s="13"/>
       <c r="J210" s="13"/>
     </row>
-    <row r="211" ht="20.35" customHeight="1">
-      <c r="A211" s="14"/>
-      <c r="B211" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="C211" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D211" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="E211" s="13"/>
-      <c r="F211" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="G211" s="13"/>
-      <c r="H211" s="13"/>
-      <c r="I211" s="13"/>
-      <c r="J211" s="13"/>
+    <row r="211" ht="70.75" customHeight="1">
+      <c r="A211" t="s" s="8">
+        <v>143</v>
+      </c>
+      <c r="B211" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C211" t="s" s="9">
+        <v>144</v>
+      </c>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
+      <c r="H211" s="11"/>
+      <c r="I211" s="11"/>
+      <c r="J211" s="11"/>
     </row>
     <row r="212" ht="20.35" customHeight="1">
-      <c r="A212" s="14"/>
-      <c r="B212" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="C212" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D212" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="E212" s="13"/>
-      <c r="F212" t="s" s="10">
-        <v>47</v>
+      <c r="A212" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B212" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C212" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D212" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E212" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F212" t="s" s="7">
+        <v>11</v>
       </c>
       <c r="G212" s="13"/>
       <c r="H212" s="13"/>
@@ -6224,66 +6287,68 @@
       <c r="J212" s="13"/>
     </row>
     <row r="213" ht="20.35" customHeight="1">
-      <c r="A213" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B213" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C213" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D213" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E213" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="F213" s="13"/>
+      <c r="A213" s="14"/>
+      <c r="B213" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="C213" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D213" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E213" s="13"/>
+      <c r="F213" t="s" s="10">
+        <v>58</v>
+      </c>
       <c r="G213" s="13"/>
       <c r="H213" s="13"/>
       <c r="I213" s="13"/>
       <c r="J213" s="13"/>
     </row>
-    <row r="214" ht="32.6" customHeight="1">
+    <row r="214" ht="20.35" customHeight="1">
       <c r="A214" s="14"/>
       <c r="B214" t="s" s="10">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C214" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D214" t="s" s="10">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="E214" s="13"/>
-      <c r="F214" s="13"/>
+      <c r="F214" t="s" s="10">
+        <v>45</v>
+      </c>
       <c r="G214" s="13"/>
       <c r="H214" s="13"/>
       <c r="I214" s="13"/>
       <c r="J214" s="13"/>
     </row>
-    <row r="215" ht="49.75" customHeight="1">
-      <c r="A215" t="s" s="8">
-        <v>139</v>
-      </c>
-      <c r="B215" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="C215" t="s" s="9">
-        <v>140</v>
-      </c>
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
-      <c r="H215" s="9"/>
-      <c r="I215" s="9"/>
-      <c r="J215" s="11"/>
+    <row r="215" ht="20.35" customHeight="1">
+      <c r="A215" s="14"/>
+      <c r="B215" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="C215" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D215" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E215" s="13"/>
+      <c r="F215" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="G215" s="13"/>
+      <c r="H215" s="13"/>
+      <c r="I215" s="13"/>
+      <c r="J215" s="13"/>
     </row>
     <row r="216" ht="20.35" customHeight="1">
       <c r="A216" t="s" s="12">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B216" t="s" s="7">
         <v>7</v>
@@ -6292,127 +6357,131 @@
         <v>8</v>
       </c>
       <c r="D216" t="s" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F216" t="s" s="7">
-        <v>11</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F216" s="13"/>
       <c r="G216" s="13"/>
       <c r="H216" s="13"/>
       <c r="I216" s="13"/>
       <c r="J216" s="13"/>
     </row>
-    <row r="217" ht="28.05" customHeight="1">
+    <row r="217" ht="32.6" customHeight="1">
       <c r="A217" s="14"/>
       <c r="B217" t="s" s="10">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="C217" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D217" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="E217" s="10">
-        <v>0</v>
-      </c>
-      <c r="F217" t="s" s="10">
-        <v>142</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E217" s="13"/>
+      <c r="F217" s="13"/>
       <c r="G217" s="13"/>
       <c r="H217" s="13"/>
       <c r="I217" s="13"/>
       <c r="J217" s="13"/>
     </row>
-    <row r="218" ht="20.35" customHeight="1">
-      <c r="A218" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B218" t="s" s="7">
+    <row r="218" ht="49.75" customHeight="1">
+      <c r="A218" t="s" s="8">
+        <v>145</v>
+      </c>
+      <c r="B218" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="C218" t="s" s="9">
+        <v>146</v>
+      </c>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="9"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="11"/>
+    </row>
+    <row r="219" ht="20.35" customHeight="1">
+      <c r="A219" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B219" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C218" t="s" s="7">
+      <c r="C219" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="D218" t="s" s="7">
+      <c r="D219" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E219" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F219" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="E218" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="F218" s="13"/>
-      <c r="G218" s="13"/>
-      <c r="H218" s="13"/>
-      <c r="I218" s="13"/>
-      <c r="J218" s="13"/>
-    </row>
-    <row r="219" ht="20.35" customHeight="1">
-      <c r="A219" s="14"/>
-      <c r="B219" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="C219" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D219" t="s" s="10">
-        <v>143</v>
-      </c>
-      <c r="E219" s="13"/>
-      <c r="F219" s="13"/>
       <c r="G219" s="13"/>
       <c r="H219" s="13"/>
       <c r="I219" s="13"/>
       <c r="J219" s="13"/>
     </row>
-    <row r="220" ht="20.35" customHeight="1">
+    <row r="220" ht="28.05" customHeight="1">
       <c r="A220" s="14"/>
       <c r="B220" t="s" s="10">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C220" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D220" t="s" s="10">
-        <v>145</v>
-      </c>
-      <c r="E220" s="13"/>
-      <c r="F220" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="E220" s="10">
+        <v>0</v>
+      </c>
+      <c r="F220" t="s" s="10">
+        <v>148</v>
+      </c>
       <c r="G220" s="13"/>
       <c r="H220" s="13"/>
       <c r="I220" s="13"/>
       <c r="J220" s="13"/>
     </row>
     <row r="221" ht="20.35" customHeight="1">
-      <c r="A221" s="14"/>
-      <c r="B221" t="s" s="10">
-        <v>146</v>
-      </c>
-      <c r="C221" t="s" s="10">
-        <v>147</v>
-      </c>
-      <c r="D221" t="s" s="10">
-        <v>148</v>
-      </c>
-      <c r="E221" s="13"/>
+      <c r="A221" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B221" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D221" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E221" t="s" s="7">
+        <v>52</v>
+      </c>
       <c r="F221" s="13"/>
       <c r="G221" s="13"/>
       <c r="H221" s="13"/>
       <c r="I221" s="13"/>
       <c r="J221" s="13"/>
     </row>
-    <row r="222" ht="30.35" customHeight="1">
+    <row r="222" ht="20.35" customHeight="1">
       <c r="A222" s="14"/>
       <c r="B222" t="s" s="10">
+        <v>12</v>
+      </c>
+      <c r="C222" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D222" t="s" s="10">
         <v>149</v>
-      </c>
-      <c r="C222" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D222" t="s" s="10">
-        <v>150</v>
       </c>
       <c r="E222" s="13"/>
       <c r="F222" s="13"/>
@@ -6423,9 +6492,15 @@
     </row>
     <row r="223" ht="20.35" customHeight="1">
       <c r="A223" s="14"/>
-      <c r="B223" s="13"/>
-      <c r="C223" s="13"/>
-      <c r="D223" s="13"/>
+      <c r="B223" t="s" s="10">
+        <v>150</v>
+      </c>
+      <c r="C223" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D223" t="s" s="10">
+        <v>151</v>
+      </c>
       <c r="E223" s="13"/>
       <c r="F223" s="13"/>
       <c r="G223" s="13"/>
@@ -6435,9 +6510,15 @@
     </row>
     <row r="224" ht="20.35" customHeight="1">
       <c r="A224" s="14"/>
-      <c r="B224" s="13"/>
-      <c r="C224" s="13"/>
-      <c r="D224" s="13"/>
+      <c r="B224" t="s" s="10">
+        <v>152</v>
+      </c>
+      <c r="C224" t="s" s="10">
+        <v>153</v>
+      </c>
+      <c r="D224" t="s" s="10">
+        <v>154</v>
+      </c>
       <c r="E224" s="13"/>
       <c r="F224" s="13"/>
       <c r="G224" s="13"/>
@@ -6445,11 +6526,17 @@
       <c r="I224" s="13"/>
       <c r="J224" s="13"/>
     </row>
-    <row r="225" ht="20.35" customHeight="1">
+    <row r="225" ht="30.35" customHeight="1">
       <c r="A225" s="14"/>
-      <c r="B225" s="13"/>
-      <c r="C225" s="13"/>
-      <c r="D225" s="13"/>
+      <c r="B225" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="C225" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D225" t="s" s="10">
+        <v>156</v>
+      </c>
       <c r="E225" s="13"/>
       <c r="F225" s="13"/>
       <c r="G225" s="13"/>
@@ -6457,116 +6544,92 @@
       <c r="I225" s="13"/>
       <c r="J225" s="13"/>
     </row>
-    <row r="226" ht="32.6" customHeight="1">
-      <c r="A226" s="5"/>
-      <c r="B226" t="s" s="6">
-        <v>151</v>
-      </c>
-      <c r="C226" s="7"/>
-      <c r="D226" s="7"/>
-      <c r="E226" s="7"/>
-      <c r="F226" s="7"/>
-      <c r="G226" s="7"/>
-      <c r="H226" s="7"/>
-      <c r="I226" s="7"/>
-      <c r="J226" s="7"/>
-    </row>
-    <row r="227" ht="49.75" customHeight="1">
-      <c r="A227" t="s" s="8">
-        <v>152</v>
-      </c>
-      <c r="B227" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="C227" t="s" s="9">
-        <v>153</v>
-      </c>
-      <c r="D227" s="10"/>
-      <c r="E227" s="10"/>
-      <c r="F227" s="10"/>
-      <c r="G227" s="10"/>
-      <c r="H227" s="9"/>
-      <c r="I227" s="9"/>
-      <c r="J227" s="11"/>
+    <row r="226" ht="20.35" customHeight="1">
+      <c r="A226" s="14"/>
+      <c r="B226" s="13"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
+      <c r="G226" s="13"/>
+      <c r="H226" s="13"/>
+      <c r="I226" s="13"/>
+      <c r="J226" s="13"/>
+    </row>
+    <row r="227" ht="20.35" customHeight="1">
+      <c r="A227" s="14"/>
+      <c r="B227" s="13"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="13"/>
+      <c r="G227" s="13"/>
+      <c r="H227" s="13"/>
+      <c r="I227" s="13"/>
+      <c r="J227" s="13"/>
     </row>
     <row r="228" ht="20.35" customHeight="1">
-      <c r="A228" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B228" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C228" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D228" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E228" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F228" t="s" s="7">
-        <v>11</v>
-      </c>
+      <c r="A228" s="14"/>
+      <c r="B228" s="13"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="13"/>
+      <c r="F228" s="13"/>
       <c r="G228" s="13"/>
       <c r="H228" s="13"/>
       <c r="I228" s="13"/>
       <c r="J228" s="13"/>
     </row>
-    <row r="229" ht="20.35" customHeight="1">
-      <c r="A229" s="14"/>
-      <c r="B229" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="C229" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D229" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="E229" s="13"/>
-      <c r="F229" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="G229" s="13"/>
-      <c r="H229" s="13"/>
-      <c r="I229" s="13"/>
-      <c r="J229" s="13"/>
-    </row>
-    <row r="230" ht="57.2" customHeight="1">
-      <c r="A230" s="14"/>
-      <c r="B230" t="s" s="10">
-        <v>154</v>
-      </c>
-      <c r="C230" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D230" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="E230" s="13"/>
-      <c r="F230" t="s" s="10">
-        <v>155</v>
-      </c>
-      <c r="G230" s="13"/>
-      <c r="H230" s="13"/>
-      <c r="I230" s="13"/>
-      <c r="J230" s="13"/>
-    </row>
-    <row r="231" ht="50.35" customHeight="1">
-      <c r="A231" s="14"/>
-      <c r="B231" t="s" s="10">
-        <v>93</v>
-      </c>
-      <c r="C231" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D231" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="E231" s="13"/>
-      <c r="F231" t="s" s="10">
-        <v>156</v>
+    <row r="229" ht="32.6" customHeight="1">
+      <c r="A229" s="5"/>
+      <c r="B229" t="s" s="6">
+        <v>157</v>
+      </c>
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
+      <c r="G229" s="7"/>
+      <c r="H229" s="7"/>
+      <c r="I229" s="7"/>
+      <c r="J229" s="7"/>
+    </row>
+    <row r="230" ht="49.75" customHeight="1">
+      <c r="A230" t="s" s="8">
+        <v>158</v>
+      </c>
+      <c r="B230" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="C230" t="s" s="9">
+        <v>159</v>
+      </c>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="9"/>
+      <c r="I230" s="9"/>
+      <c r="J230" s="11"/>
+    </row>
+    <row r="231" ht="20.35" customHeight="1">
+      <c r="A231" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C231" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D231" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E231" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F231" t="s" s="7">
+        <v>11</v>
       </c>
       <c r="G231" s="13"/>
       <c r="H231" s="13"/>
@@ -6574,9 +6637,9 @@
       <c r="J231" s="13"/>
     </row>
     <row r="232" ht="20.35" customHeight="1">
-      <c r="A232" s="12"/>
+      <c r="A232" s="14"/>
       <c r="B232" t="s" s="10">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C232" t="s" s="10">
         <v>40</v>
@@ -6584,21 +6647,19 @@
       <c r="D232" t="s" s="10">
         <v>31</v>
       </c>
-      <c r="E232" s="10">
-        <v>0</v>
-      </c>
+      <c r="E232" s="13"/>
       <c r="F232" t="s" s="10">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="G232" s="13"/>
       <c r="H232" s="13"/>
       <c r="I232" s="13"/>
       <c r="J232" s="13"/>
     </row>
-    <row r="233" ht="20.35" customHeight="1">
-      <c r="A233" s="12"/>
+    <row r="233" ht="57.2" customHeight="1">
+      <c r="A233" s="14"/>
       <c r="B233" t="s" s="10">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="C233" t="s" s="10">
         <v>40</v>
@@ -6606,88 +6667,94 @@
       <c r="D233" t="s" s="10">
         <v>31</v>
       </c>
-      <c r="E233" s="10">
-        <v>10</v>
-      </c>
+      <c r="E233" s="13"/>
       <c r="F233" t="s" s="10">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="G233" s="13"/>
       <c r="H233" s="13"/>
       <c r="I233" s="13"/>
       <c r="J233" s="13"/>
     </row>
-    <row r="234" ht="20.35" customHeight="1">
-      <c r="A234" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B234" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C234" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D234" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E234" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="F234" s="13"/>
+    <row r="234" ht="64.9" customHeight="1">
+      <c r="A234" s="14"/>
+      <c r="B234" t="s" s="10">
+        <v>95</v>
+      </c>
+      <c r="C234" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D234" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="E234" s="13"/>
+      <c r="F234" t="s" s="10">
+        <v>162</v>
+      </c>
       <c r="G234" s="13"/>
       <c r="H234" s="13"/>
       <c r="I234" s="13"/>
       <c r="J234" s="13"/>
     </row>
     <row r="235" ht="20.35" customHeight="1">
-      <c r="A235" s="14"/>
+      <c r="A235" s="12"/>
       <c r="B235" t="s" s="10">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C235" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D235" t="s" s="10">
-        <v>158</v>
-      </c>
-      <c r="E235" s="13"/>
-      <c r="F235" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="E235" s="10">
+        <v>0</v>
+      </c>
+      <c r="F235" t="s" s="10">
+        <v>92</v>
+      </c>
       <c r="G235" s="13"/>
       <c r="H235" s="13"/>
       <c r="I235" s="13"/>
       <c r="J235" s="13"/>
     </row>
-    <row r="236" ht="44.9" customHeight="1">
-      <c r="A236" s="14"/>
+    <row r="236" ht="20.35" customHeight="1">
+      <c r="A236" s="12"/>
       <c r="B236" t="s" s="10">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="C236" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D236" t="s" s="10">
-        <v>159</v>
-      </c>
-      <c r="E236" s="13"/>
-      <c r="F236" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="E236" s="10">
+        <v>10</v>
+      </c>
+      <c r="F236" t="s" s="10">
+        <v>94</v>
+      </c>
       <c r="G236" s="13"/>
       <c r="H236" s="13"/>
       <c r="I236" s="13"/>
       <c r="J236" s="13"/>
     </row>
-    <row r="237" ht="20.35" customHeight="1">
+    <row r="237" ht="52.6" customHeight="1">
       <c r="A237" s="14"/>
       <c r="B237" t="s" s="10">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C237" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D237" t="s" s="10">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E237" s="13"/>
-      <c r="F237" s="13"/>
+      <c r="F237" t="s" s="10">
+        <v>127</v>
+      </c>
       <c r="G237" s="13"/>
       <c r="H237" s="13"/>
       <c r="I237" s="13"/>
@@ -6696,16 +6763,18 @@
     <row r="238" ht="20.35" customHeight="1">
       <c r="A238" s="14"/>
       <c r="B238" t="s" s="10">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C238" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D238" t="s" s="10">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="E238" s="13"/>
-      <c r="F238" s="13"/>
+      <c r="F238" t="s" s="10">
+        <v>163</v>
+      </c>
       <c r="G238" s="13"/>
       <c r="H238" s="13"/>
       <c r="I238" s="13"/>
@@ -6714,16 +6783,18 @@
     <row r="239" ht="20.35" customHeight="1">
       <c r="A239" s="14"/>
       <c r="B239" t="s" s="10">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="C239" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D239" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E239" s="13"/>
+      <c r="F239" t="s" s="10">
         <v>164</v>
       </c>
-      <c r="E239" s="13"/>
-      <c r="F239" s="13"/>
       <c r="G239" s="13"/>
       <c r="H239" s="13"/>
       <c r="I239" s="13"/>
@@ -6732,33 +6803,39 @@
     <row r="240" ht="20.35" customHeight="1">
       <c r="A240" s="14"/>
       <c r="B240" t="s" s="10">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="C240" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D240" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E240" s="13"/>
+      <c r="F240" t="s" s="10">
         <v>165</v>
       </c>
-      <c r="E240" s="13"/>
-      <c r="F240" s="13"/>
       <c r="G240" s="13"/>
       <c r="H240" s="13"/>
       <c r="I240" s="13"/>
       <c r="J240" s="13"/>
     </row>
     <row r="241" ht="20.35" customHeight="1">
-      <c r="A241" s="14"/>
-      <c r="B241" t="s" s="10">
-        <v>166</v>
-      </c>
-      <c r="C241" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D241" t="s" s="10">
-        <v>167</v>
-      </c>
-      <c r="E241" s="13"/>
+      <c r="A241" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B241" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C241" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D241" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E241" t="s" s="7">
+        <v>52</v>
+      </c>
       <c r="F241" s="13"/>
       <c r="G241" s="13"/>
       <c r="H241" s="13"/>
@@ -6768,13 +6845,13 @@
     <row r="242" ht="20.35" customHeight="1">
       <c r="A242" s="14"/>
       <c r="B242" t="s" s="10">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C242" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D242" t="s" s="10">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E242" s="13"/>
       <c r="F242" s="13"/>
@@ -6783,16 +6860,16 @@
       <c r="I242" s="13"/>
       <c r="J242" s="13"/>
     </row>
-    <row r="243" ht="20.35" customHeight="1">
+    <row r="243" ht="44.9" customHeight="1">
       <c r="A243" s="14"/>
       <c r="B243" t="s" s="10">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C243" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D243" t="s" s="10">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E243" s="13"/>
       <c r="F243" s="13"/>
@@ -6804,13 +6881,13 @@
     <row r="244" ht="20.35" customHeight="1">
       <c r="A244" s="14"/>
       <c r="B244" t="s" s="10">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C244" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D244" t="s" s="10">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="E244" s="13"/>
       <c r="F244" s="13"/>
@@ -6822,13 +6899,13 @@
     <row r="245" ht="20.35" customHeight="1">
       <c r="A245" s="14"/>
       <c r="B245" t="s" s="10">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="C245" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D245" t="s" s="10">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="E245" s="13"/>
       <c r="F245" s="13"/>
@@ -6840,13 +6917,13 @@
     <row r="246" ht="20.35" customHeight="1">
       <c r="A246" s="14"/>
       <c r="B246" t="s" s="10">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C246" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D246" t="s" s="10">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E246" s="13"/>
       <c r="F246" s="13"/>
@@ -6855,43 +6932,37 @@
       <c r="I246" s="13"/>
       <c r="J246" s="13"/>
     </row>
-    <row r="247" ht="49.75" customHeight="1">
-      <c r="A247" t="s" s="8">
+    <row r="247" ht="20.35" customHeight="1">
+      <c r="A247" s="14"/>
+      <c r="B247" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="C247" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D247" t="s" s="10">
+        <v>174</v>
+      </c>
+      <c r="E247" s="13"/>
+      <c r="F247" s="13"/>
+      <c r="G247" s="13"/>
+      <c r="H247" s="13"/>
+      <c r="I247" s="13"/>
+      <c r="J247" s="13"/>
+    </row>
+    <row r="248" ht="20.35" customHeight="1">
+      <c r="A248" s="14"/>
+      <c r="B248" t="s" s="10">
         <v>175</v>
       </c>
-      <c r="B247" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="C247" t="s" s="9">
+      <c r="C248" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D248" t="s" s="10">
         <v>176</v>
       </c>
-      <c r="D247" s="10"/>
-      <c r="E247" s="10"/>
-      <c r="F247" s="10"/>
-      <c r="G247" s="10"/>
-      <c r="H247" s="9"/>
-      <c r="I247" s="9"/>
-      <c r="J247" s="11"/>
-    </row>
-    <row r="248" ht="20.35" customHeight="1">
-      <c r="A248" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B248" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C248" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D248" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E248" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F248" t="s" s="7">
-        <v>11</v>
-      </c>
+      <c r="E248" s="13"/>
+      <c r="F248" s="13"/>
       <c r="G248" s="13"/>
       <c r="H248" s="13"/>
       <c r="I248" s="13"/>
@@ -6900,18 +6971,16 @@
     <row r="249" ht="20.35" customHeight="1">
       <c r="A249" s="14"/>
       <c r="B249" t="s" s="10">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="C249" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D249" t="s" s="10">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="E249" s="13"/>
-      <c r="F249" t="s" s="10">
-        <v>83</v>
-      </c>
+      <c r="F249" s="13"/>
       <c r="G249" s="13"/>
       <c r="H249" s="13"/>
       <c r="I249" s="13"/>
@@ -6920,18 +6989,16 @@
     <row r="250" ht="20.35" customHeight="1">
       <c r="A250" s="14"/>
       <c r="B250" t="s" s="10">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C250" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D250" t="s" s="10">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="E250" s="13"/>
-      <c r="F250" t="s" s="10">
-        <v>164</v>
-      </c>
+      <c r="F250" s="13"/>
       <c r="G250" s="13"/>
       <c r="H250" s="13"/>
       <c r="I250" s="13"/>
@@ -6940,18 +7007,16 @@
     <row r="251" ht="20.35" customHeight="1">
       <c r="A251" s="14"/>
       <c r="B251" t="s" s="10">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C251" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D251" t="s" s="10">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="E251" s="13"/>
-      <c r="F251" t="s" s="10">
-        <v>178</v>
-      </c>
+      <c r="F251" s="13"/>
       <c r="G251" s="13"/>
       <c r="H251" s="13"/>
       <c r="I251" s="13"/>
@@ -6960,18 +7025,16 @@
     <row r="252" ht="20.35" customHeight="1">
       <c r="A252" s="14"/>
       <c r="B252" t="s" s="10">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="C252" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D252" t="s" s="10">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="E252" s="13"/>
-      <c r="F252" t="s" s="10">
-        <v>180</v>
-      </c>
+      <c r="F252" s="13"/>
       <c r="G252" s="13"/>
       <c r="H252" s="13"/>
       <c r="I252" s="13"/>
@@ -6980,18 +7043,16 @@
     <row r="253" ht="20.35" customHeight="1">
       <c r="A253" s="14"/>
       <c r="B253" t="s" s="10">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C253" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D253" t="s" s="10">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="E253" s="13"/>
-      <c r="F253" t="s" s="10">
-        <v>182</v>
-      </c>
+      <c r="F253" s="13"/>
       <c r="G253" s="13"/>
       <c r="H253" s="13"/>
       <c r="I253" s="13"/>
@@ -7000,18 +7061,16 @@
     <row r="254" ht="20.35" customHeight="1">
       <c r="A254" s="14"/>
       <c r="B254" t="s" s="10">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C254" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D254" t="s" s="10">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="E254" s="13"/>
-      <c r="F254" t="s" s="10">
-        <v>183</v>
-      </c>
+      <c r="F254" s="13"/>
       <c r="G254" s="13"/>
       <c r="H254" s="13"/>
       <c r="I254" s="13"/>
@@ -7020,99 +7079,97 @@
     <row r="255" ht="20.35" customHeight="1">
       <c r="A255" s="14"/>
       <c r="B255" t="s" s="10">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="C255" t="s" s="10">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="D255" t="s" s="10">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="E255" s="13"/>
-      <c r="F255" t="s" s="10">
-        <v>186</v>
-      </c>
+      <c r="F255" s="13"/>
       <c r="G255" s="13"/>
       <c r="H255" s="13"/>
       <c r="I255" s="13"/>
       <c r="J255" s="13"/>
     </row>
-    <row r="256" ht="20.35" customHeight="1">
-      <c r="A256" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B256" t="s" s="7">
+    <row r="256" ht="49.75" customHeight="1">
+      <c r="A256" t="s" s="8">
+        <v>186</v>
+      </c>
+      <c r="B256" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C256" t="s" s="9">
+        <v>187</v>
+      </c>
+      <c r="D256" s="10"/>
+      <c r="E256" s="10"/>
+      <c r="F256" s="10"/>
+      <c r="G256" s="10"/>
+      <c r="H256" s="9"/>
+      <c r="I256" s="9"/>
+      <c r="J256" s="11"/>
+    </row>
+    <row r="257" ht="20.35" customHeight="1">
+      <c r="A257" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B257" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C256" t="s" s="7">
+      <c r="C257" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="D256" t="s" s="7">
+      <c r="D257" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E257" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F257" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="E256" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="F256" s="13"/>
-      <c r="G256" s="13"/>
-      <c r="H256" s="13"/>
-      <c r="I256" s="13"/>
-      <c r="J256" s="13"/>
-    </row>
-    <row r="257" ht="32.6" customHeight="1">
-      <c r="A257" s="14"/>
-      <c r="B257" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="C257" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D257" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="E257" s="13"/>
-      <c r="F257" s="13"/>
       <c r="G257" s="13"/>
       <c r="H257" s="13"/>
       <c r="I257" s="13"/>
       <c r="J257" s="13"/>
     </row>
-    <row r="258" ht="49.75" customHeight="1">
-      <c r="A258" t="s" s="8">
-        <v>187</v>
-      </c>
-      <c r="B258" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="C258" t="s" s="9">
-        <v>188</v>
-      </c>
-      <c r="D258" s="10"/>
-      <c r="E258" s="10"/>
-      <c r="F258" s="10"/>
-      <c r="G258" s="10"/>
-      <c r="H258" s="9"/>
-      <c r="I258" s="9"/>
-      <c r="J258" s="11"/>
+    <row r="258" ht="20.35" customHeight="1">
+      <c r="A258" s="14"/>
+      <c r="B258" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="C258" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D258" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E258" s="13"/>
+      <c r="F258" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="G258" s="13"/>
+      <c r="H258" s="13"/>
+      <c r="I258" s="13"/>
+      <c r="J258" s="13"/>
     </row>
     <row r="259" ht="20.35" customHeight="1">
-      <c r="A259" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B259" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C259" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D259" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E259" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F259" t="s" s="7">
-        <v>11</v>
+      <c r="A259" s="14"/>
+      <c r="B259" t="s" s="10">
+        <v>172</v>
+      </c>
+      <c r="C259" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D259" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E259" s="13"/>
+      <c r="F259" t="s" s="10">
+        <v>173</v>
       </c>
       <c r="G259" s="13"/>
       <c r="H259" s="13"/>
@@ -7122,17 +7179,17 @@
     <row r="260" ht="20.35" customHeight="1">
       <c r="A260" s="14"/>
       <c r="B260" t="s" s="10">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="C260" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D260" t="s" s="10">
         <v>14</v>
       </c>
       <c r="E260" s="13"/>
       <c r="F260" t="s" s="10">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="G260" s="13"/>
       <c r="H260" s="13"/>
@@ -7142,17 +7199,17 @@
     <row r="261" ht="20.35" customHeight="1">
       <c r="A261" s="14"/>
       <c r="B261" t="s" s="10">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="C261" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D261" t="s" s="10">
         <v>14</v>
       </c>
       <c r="E261" s="13"/>
       <c r="F261" t="s" s="10">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G261" s="13"/>
       <c r="H261" s="13"/>
@@ -7162,17 +7219,17 @@
     <row r="262" ht="20.35" customHeight="1">
       <c r="A262" s="14"/>
       <c r="B262" t="s" s="10">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C262" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D262" t="s" s="10">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E262" s="13"/>
       <c r="F262" t="s" s="10">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="G262" s="13"/>
       <c r="H262" s="13"/>
@@ -7182,7 +7239,7 @@
     <row r="263" ht="20.35" customHeight="1">
       <c r="A263" s="14"/>
       <c r="B263" t="s" s="10">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C263" t="s" s="10">
         <v>40</v>
@@ -7192,7 +7249,7 @@
       </c>
       <c r="E263" s="13"/>
       <c r="F263" t="s" s="10">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G263" s="13"/>
       <c r="H263" s="13"/>
@@ -7202,17 +7259,17 @@
     <row r="264" ht="20.35" customHeight="1">
       <c r="A264" s="14"/>
       <c r="B264" t="s" s="10">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C264" t="s" s="10">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="D264" t="s" s="10">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E264" s="13"/>
       <c r="F264" t="s" s="10">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="G264" s="13"/>
       <c r="H264" s="13"/>
@@ -7220,121 +7277,121 @@
       <c r="J264" s="13"/>
     </row>
     <row r="265" ht="20.35" customHeight="1">
-      <c r="A265" s="14"/>
-      <c r="B265" t="s" s="10">
-        <v>166</v>
-      </c>
-      <c r="C265" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D265" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="E265" s="13"/>
-      <c r="F265" t="s" s="10">
-        <v>183</v>
-      </c>
+      <c r="A265" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B265" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C265" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D265" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E265" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="F265" s="13"/>
       <c r="G265" s="13"/>
       <c r="H265" s="13"/>
       <c r="I265" s="13"/>
       <c r="J265" s="13"/>
     </row>
-    <row r="266" ht="20.35" customHeight="1">
+    <row r="266" ht="32.6" customHeight="1">
       <c r="A266" s="14"/>
       <c r="B266" t="s" s="10">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="C266" t="s" s="10">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="D266" t="s" s="10">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E266" s="13"/>
-      <c r="F266" t="s" s="10">
-        <v>186</v>
-      </c>
+      <c r="F266" s="13"/>
       <c r="G266" s="13"/>
       <c r="H266" s="13"/>
       <c r="I266" s="13"/>
       <c r="J266" s="13"/>
     </row>
-    <row r="267" ht="20.35" customHeight="1">
-      <c r="A267" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B267" t="s" s="7">
+    <row r="267" ht="49.75" customHeight="1">
+      <c r="A267" t="s" s="8">
+        <v>197</v>
+      </c>
+      <c r="B267" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C267" t="s" s="9">
+        <v>198</v>
+      </c>
+      <c r="D267" s="10"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="10"/>
+      <c r="G267" s="10"/>
+      <c r="H267" s="9"/>
+      <c r="I267" s="9"/>
+      <c r="J267" s="11"/>
+    </row>
+    <row r="268" ht="20.35" customHeight="1">
+      <c r="A268" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B268" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C267" t="s" s="7">
+      <c r="C268" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="D267" t="s" s="7">
+      <c r="D268" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E268" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F268" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="E267" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="F267" s="13"/>
-      <c r="G267" s="13"/>
-      <c r="H267" s="13"/>
-      <c r="I267" s="13"/>
-      <c r="J267" s="13"/>
-    </row>
-    <row r="268" ht="32.6" customHeight="1">
-      <c r="A268" s="14"/>
-      <c r="B268" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="C268" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D268" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="E268" s="13"/>
-      <c r="F268" s="13"/>
       <c r="G268" s="13"/>
       <c r="H268" s="13"/>
       <c r="I268" s="13"/>
       <c r="J268" s="13"/>
     </row>
-    <row r="269" ht="32.35" customHeight="1">
-      <c r="A269" t="s" s="8">
-        <v>189</v>
-      </c>
-      <c r="B269" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="C269" t="s" s="9">
-        <v>190</v>
-      </c>
-      <c r="D269" s="10"/>
-      <c r="E269" s="10"/>
-      <c r="F269" s="10"/>
-      <c r="G269" s="10"/>
-      <c r="H269" s="9"/>
-      <c r="I269" s="9"/>
-      <c r="J269" s="11"/>
+    <row r="269" ht="20.35" customHeight="1">
+      <c r="A269" s="14"/>
+      <c r="B269" t="s" s="10">
+        <v>150</v>
+      </c>
+      <c r="C269" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D269" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E269" s="13"/>
+      <c r="F269" t="s" s="10">
+        <v>167</v>
+      </c>
+      <c r="G269" s="13"/>
+      <c r="H269" s="13"/>
+      <c r="I269" s="13"/>
+      <c r="J269" s="13"/>
     </row>
     <row r="270" ht="20.35" customHeight="1">
-      <c r="A270" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B270" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C270" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D270" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E270" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F270" t="s" s="7">
-        <v>11</v>
+      <c r="A270" s="14"/>
+      <c r="B270" t="s" s="10">
+        <v>172</v>
+      </c>
+      <c r="C270" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D270" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E270" s="13"/>
+      <c r="F270" t="s" s="10">
+        <v>173</v>
       </c>
       <c r="G270" s="13"/>
       <c r="H270" s="13"/>
@@ -7344,17 +7401,17 @@
     <row r="271" ht="20.35" customHeight="1">
       <c r="A271" s="14"/>
       <c r="B271" t="s" s="10">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="C271" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D271" t="s" s="10">
         <v>14</v>
       </c>
       <c r="E271" s="13"/>
       <c r="F271" t="s" s="10">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="G271" s="13"/>
       <c r="H271" s="13"/>
@@ -7364,17 +7421,17 @@
     <row r="272" ht="20.35" customHeight="1">
       <c r="A272" s="14"/>
       <c r="B272" t="s" s="10">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="C272" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D272" t="s" s="10">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E272" s="13"/>
       <c r="F272" t="s" s="10">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="G272" s="13"/>
       <c r="H272" s="13"/>
@@ -7382,22 +7439,20 @@
       <c r="J272" s="13"/>
     </row>
     <row r="273" ht="20.35" customHeight="1">
-      <c r="A273" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B273" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C273" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D273" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E273" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="F273" s="13"/>
+      <c r="A273" s="14"/>
+      <c r="B273" t="s" s="10">
+        <v>191</v>
+      </c>
+      <c r="C273" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D273" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="E273" s="13"/>
+      <c r="F273" t="s" s="10">
+        <v>192</v>
+      </c>
       <c r="G273" s="13"/>
       <c r="H273" s="13"/>
       <c r="I273" s="13"/>
@@ -7406,16 +7461,18 @@
     <row r="274" ht="20.35" customHeight="1">
       <c r="A274" s="14"/>
       <c r="B274" t="s" s="10">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C274" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D274" t="s" s="10">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="E274" s="13"/>
-      <c r="F274" s="13"/>
+      <c r="F274" t="s" s="10">
+        <v>193</v>
+      </c>
       <c r="G274" s="13"/>
       <c r="H274" s="13"/>
       <c r="I274" s="13"/>
@@ -7424,49 +7481,55 @@
     <row r="275" ht="20.35" customHeight="1">
       <c r="A275" s="14"/>
       <c r="B275" t="s" s="10">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C275" t="s" s="10">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="D275" t="s" s="10">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="E275" s="13"/>
-      <c r="F275" s="13"/>
+      <c r="F275" t="s" s="10">
+        <v>196</v>
+      </c>
       <c r="G275" s="13"/>
       <c r="H275" s="13"/>
       <c r="I275" s="13"/>
       <c r="J275" s="13"/>
     </row>
     <row r="276" ht="20.35" customHeight="1">
-      <c r="A276" s="14"/>
-      <c r="B276" t="s" s="10">
-        <v>181</v>
-      </c>
-      <c r="C276" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D276" t="s" s="10">
-        <v>182</v>
-      </c>
-      <c r="E276" s="13"/>
+      <c r="A276" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B276" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C276" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D276" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E276" t="s" s="7">
+        <v>52</v>
+      </c>
       <c r="F276" s="13"/>
       <c r="G276" s="13"/>
       <c r="H276" s="13"/>
       <c r="I276" s="13"/>
       <c r="J276" s="13"/>
     </row>
-    <row r="277" ht="20.35" customHeight="1">
+    <row r="277" ht="32.6" customHeight="1">
       <c r="A277" s="14"/>
       <c r="B277" t="s" s="10">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="C277" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D277" t="s" s="10">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="E277" s="13"/>
       <c r="F277" s="13"/>
@@ -7475,37 +7538,43 @@
       <c r="I277" s="13"/>
       <c r="J277" s="13"/>
     </row>
-    <row r="278" ht="20.35" customHeight="1">
-      <c r="A278" s="14"/>
-      <c r="B278" t="s" s="10">
-        <v>191</v>
-      </c>
-      <c r="C278" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D278" t="s" s="10">
-        <v>192</v>
-      </c>
-      <c r="E278" s="13"/>
-      <c r="F278" s="13"/>
-      <c r="G278" s="13"/>
-      <c r="H278" s="13"/>
-      <c r="I278" s="13"/>
-      <c r="J278" s="13"/>
+    <row r="278" ht="32.35" customHeight="1">
+      <c r="A278" t="s" s="8">
+        <v>199</v>
+      </c>
+      <c r="B278" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="C278" t="s" s="9">
+        <v>200</v>
+      </c>
+      <c r="D278" s="10"/>
+      <c r="E278" s="10"/>
+      <c r="F278" s="10"/>
+      <c r="G278" s="10"/>
+      <c r="H278" s="9"/>
+      <c r="I278" s="9"/>
+      <c r="J278" s="11"/>
     </row>
     <row r="279" ht="20.35" customHeight="1">
-      <c r="A279" s="14"/>
-      <c r="B279" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="C279" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D279" t="s" s="10">
-        <v>112</v>
-      </c>
-      <c r="E279" s="13"/>
-      <c r="F279" s="13"/>
+      <c r="A279" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B279" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C279" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D279" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E279" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F279" t="s" s="7">
+        <v>11</v>
+      </c>
       <c r="G279" s="13"/>
       <c r="H279" s="13"/>
       <c r="I279" s="13"/>
@@ -7514,16 +7583,18 @@
     <row r="280" ht="20.35" customHeight="1">
       <c r="A280" s="14"/>
       <c r="B280" t="s" s="10">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="C280" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D280" t="s" s="10">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="E280" s="13"/>
-      <c r="F280" s="13"/>
+      <c r="F280" t="s" s="10">
+        <v>167</v>
+      </c>
       <c r="G280" s="13"/>
       <c r="H280" s="13"/>
       <c r="I280" s="13"/>
@@ -7532,33 +7603,39 @@
     <row r="281" ht="20.35" customHeight="1">
       <c r="A281" s="14"/>
       <c r="B281" t="s" s="10">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="C281" t="s" s="10">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="D281" t="s" s="10">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="E281" s="13"/>
-      <c r="F281" s="13"/>
+      <c r="F281" t="s" s="10">
+        <v>73</v>
+      </c>
       <c r="G281" s="13"/>
       <c r="H281" s="13"/>
       <c r="I281" s="13"/>
       <c r="J281" s="13"/>
     </row>
     <row r="282" ht="20.35" customHeight="1">
-      <c r="A282" s="14"/>
-      <c r="B282" t="s" s="10">
-        <v>179</v>
-      </c>
-      <c r="C282" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D282" t="s" s="10">
-        <v>180</v>
-      </c>
-      <c r="E282" s="13"/>
+      <c r="A282" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B282" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C282" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D282" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E282" t="s" s="7">
+        <v>52</v>
+      </c>
       <c r="F282" s="13"/>
       <c r="G282" s="13"/>
       <c r="H282" s="13"/>
@@ -7568,13 +7645,13 @@
     <row r="283" ht="20.35" customHeight="1">
       <c r="A283" s="14"/>
       <c r="B283" t="s" s="10">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="C283" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D283" t="s" s="10">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E283" s="13"/>
       <c r="F283" s="13"/>
@@ -7586,13 +7663,13 @@
     <row r="284" ht="20.35" customHeight="1">
       <c r="A284" s="14"/>
       <c r="B284" t="s" s="10">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="C284" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D284" t="s" s="10">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="E284" s="13"/>
       <c r="F284" s="13"/>
@@ -7604,13 +7681,13 @@
     <row r="285" ht="20.35" customHeight="1">
       <c r="A285" s="14"/>
       <c r="B285" t="s" s="10">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="C285" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D285" t="s" s="10">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="E285" s="13"/>
       <c r="F285" s="13"/>
@@ -7622,13 +7699,13 @@
     <row r="286" ht="20.35" customHeight="1">
       <c r="A286" s="14"/>
       <c r="B286" t="s" s="10">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="C286" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D286" t="s" s="10">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E286" s="13"/>
       <c r="F286" s="13"/>
@@ -7640,13 +7717,13 @@
     <row r="287" ht="20.35" customHeight="1">
       <c r="A287" s="14"/>
       <c r="B287" t="s" s="10">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="C287" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D287" t="s" s="10">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="E287" s="13"/>
       <c r="F287" s="13"/>
@@ -7655,34 +7732,36 @@
       <c r="I287" s="13"/>
       <c r="J287" s="13"/>
     </row>
-    <row r="288" ht="40.35" customHeight="1">
+    <row r="288" ht="57.2" customHeight="1">
       <c r="A288" s="14"/>
       <c r="B288" t="s" s="10">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="C288" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D288" t="s" s="10">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E288" s="13"/>
-      <c r="F288" s="13"/>
+      <c r="F288" t="s" s="10">
+        <v>161</v>
+      </c>
       <c r="G288" s="13"/>
       <c r="H288" s="13"/>
       <c r="I288" s="13"/>
       <c r="J288" s="13"/>
     </row>
-    <row r="289" ht="32.6" customHeight="1">
+    <row r="289" ht="20.35" customHeight="1">
       <c r="A289" s="14"/>
       <c r="B289" t="s" s="10">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C289" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D289" t="s" s="10">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E289" s="13"/>
       <c r="F289" s="13"/>
@@ -7691,43 +7770,37 @@
       <c r="I289" s="13"/>
       <c r="J289" s="13"/>
     </row>
-    <row r="290" ht="49.75" customHeight="1">
-      <c r="A290" t="s" s="8">
-        <v>199</v>
-      </c>
-      <c r="B290" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="C290" t="s" s="9">
-        <v>200</v>
-      </c>
-      <c r="D290" s="10"/>
-      <c r="E290" s="10"/>
-      <c r="F290" s="10"/>
-      <c r="G290" s="10"/>
-      <c r="H290" s="9"/>
-      <c r="I290" s="9"/>
-      <c r="J290" s="11"/>
+    <row r="290" ht="20.35" customHeight="1">
+      <c r="A290" s="14"/>
+      <c r="B290" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="C290" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D290" t="s" s="10">
+        <v>204</v>
+      </c>
+      <c r="E290" s="13"/>
+      <c r="F290" s="13"/>
+      <c r="G290" s="13"/>
+      <c r="H290" s="13"/>
+      <c r="I290" s="13"/>
+      <c r="J290" s="13"/>
     </row>
     <row r="291" ht="20.35" customHeight="1">
-      <c r="A291" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B291" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C291" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D291" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E291" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F291" t="s" s="7">
-        <v>11</v>
-      </c>
+      <c r="A291" s="14"/>
+      <c r="B291" t="s" s="10">
+        <v>205</v>
+      </c>
+      <c r="C291" t="s" s="10">
+        <v>195</v>
+      </c>
+      <c r="D291" t="s" s="10">
+        <v>206</v>
+      </c>
+      <c r="E291" s="13"/>
+      <c r="F291" s="13"/>
       <c r="G291" s="13"/>
       <c r="H291" s="13"/>
       <c r="I291" s="13"/>
@@ -7736,18 +7809,16 @@
     <row r="292" ht="20.35" customHeight="1">
       <c r="A292" s="14"/>
       <c r="B292" t="s" s="10">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C292" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D292" t="s" s="10">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="E292" s="13"/>
-      <c r="F292" t="s" s="10">
-        <v>158</v>
-      </c>
+      <c r="F292" s="13"/>
       <c r="G292" s="13"/>
       <c r="H292" s="13"/>
       <c r="I292" s="13"/>
@@ -7756,55 +7827,49 @@
     <row r="293" ht="20.35" customHeight="1">
       <c r="A293" s="14"/>
       <c r="B293" t="s" s="10">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C293" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D293" t="s" s="10">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="E293" s="13"/>
-      <c r="F293" t="s" s="10">
-        <v>73</v>
-      </c>
+      <c r="F293" s="13"/>
       <c r="G293" s="13"/>
       <c r="H293" s="13"/>
       <c r="I293" s="13"/>
       <c r="J293" s="13"/>
     </row>
     <row r="294" ht="20.35" customHeight="1">
-      <c r="A294" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B294" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C294" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D294" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E294" t="s" s="7">
-        <v>52</v>
-      </c>
+      <c r="A294" s="14"/>
+      <c r="B294" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="C294" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D294" t="s" s="10">
+        <v>174</v>
+      </c>
+      <c r="E294" s="13"/>
       <c r="F294" s="13"/>
       <c r="G294" s="13"/>
       <c r="H294" s="13"/>
       <c r="I294" s="13"/>
       <c r="J294" s="13"/>
     </row>
-    <row r="295" ht="32.6" customHeight="1">
+    <row r="295" ht="20.35" customHeight="1">
       <c r="A295" s="14"/>
       <c r="B295" t="s" s="10">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C295" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D295" t="s" s="10">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E295" s="13"/>
       <c r="F295" s="13"/>
@@ -7813,43 +7878,37 @@
       <c r="I295" s="13"/>
       <c r="J295" s="13"/>
     </row>
-    <row r="296" ht="49.75" customHeight="1">
-      <c r="A296" t="s" s="8">
-        <v>202</v>
-      </c>
-      <c r="B296" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="C296" t="s" s="9">
-        <v>203</v>
-      </c>
-      <c r="D296" s="10"/>
-      <c r="E296" s="10"/>
-      <c r="F296" s="10"/>
-      <c r="G296" s="10"/>
-      <c r="H296" s="9"/>
-      <c r="I296" s="9"/>
-      <c r="J296" s="11"/>
+    <row r="296" ht="20.35" customHeight="1">
+      <c r="A296" s="14"/>
+      <c r="B296" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="C296" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D296" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="E296" s="13"/>
+      <c r="F296" s="13"/>
+      <c r="G296" s="13"/>
+      <c r="H296" s="13"/>
+      <c r="I296" s="13"/>
+      <c r="J296" s="13"/>
     </row>
     <row r="297" ht="20.35" customHeight="1">
-      <c r="A297" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B297" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C297" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D297" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E297" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F297" t="s" s="7">
-        <v>11</v>
-      </c>
+      <c r="A297" s="14"/>
+      <c r="B297" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="C297" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D297" t="s" s="10">
+        <v>207</v>
+      </c>
+      <c r="E297" s="13"/>
+      <c r="F297" s="13"/>
       <c r="G297" s="13"/>
       <c r="H297" s="13"/>
       <c r="I297" s="13"/>
@@ -7858,119 +7917,113 @@
     <row r="298" ht="20.35" customHeight="1">
       <c r="A298" s="14"/>
       <c r="B298" t="s" s="10">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C298" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D298" t="s" s="10">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="E298" s="13"/>
-      <c r="F298" t="s" s="10">
-        <v>158</v>
-      </c>
+      <c r="F298" s="13"/>
       <c r="G298" s="13"/>
       <c r="H298" s="13"/>
       <c r="I298" s="13"/>
       <c r="J298" s="13"/>
     </row>
-    <row r="299" ht="57.2" customHeight="1">
+    <row r="299" ht="40.35" customHeight="1">
       <c r="A299" s="14"/>
       <c r="B299" t="s" s="10">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="C299" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D299" t="s" s="10">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="E299" s="13"/>
-      <c r="F299" t="s" s="10">
-        <v>155</v>
-      </c>
+      <c r="F299" s="13"/>
       <c r="G299" s="13"/>
       <c r="H299" s="13"/>
       <c r="I299" s="13"/>
       <c r="J299" s="13"/>
     </row>
-    <row r="300" ht="20.35" customHeight="1">
-      <c r="A300" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B300" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C300" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D300" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E300" t="s" s="7">
-        <v>52</v>
-      </c>
+    <row r="300" ht="32.6" customHeight="1">
+      <c r="A300" s="14"/>
+      <c r="B300" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="C300" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D300" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="E300" s="13"/>
       <c r="F300" s="13"/>
       <c r="G300" s="13"/>
       <c r="H300" s="13"/>
       <c r="I300" s="13"/>
       <c r="J300" s="13"/>
     </row>
-    <row r="301" ht="32.6" customHeight="1">
-      <c r="A301" s="14"/>
-      <c r="B301" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="C301" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D301" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="E301" s="13"/>
-      <c r="F301" s="13"/>
-      <c r="G301" s="13"/>
-      <c r="H301" s="13"/>
-      <c r="I301" s="13"/>
-      <c r="J301" s="13"/>
-    </row>
-    <row r="302" ht="49.75" customHeight="1">
-      <c r="A302" t="s" s="8">
-        <v>204</v>
-      </c>
-      <c r="B302" t="s" s="9">
+    <row r="301" ht="49.75" customHeight="1">
+      <c r="A301" t="s" s="8">
+        <v>210</v>
+      </c>
+      <c r="B301" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="C302" t="s" s="9">
-        <v>205</v>
-      </c>
-      <c r="D302" s="10"/>
-      <c r="E302" s="10"/>
-      <c r="F302" s="10"/>
-      <c r="G302" s="10"/>
-      <c r="H302" s="9"/>
-      <c r="I302" s="9"/>
-      <c r="J302" s="11"/>
+      <c r="C301" t="s" s="9">
+        <v>211</v>
+      </c>
+      <c r="D301" s="10"/>
+      <c r="E301" s="10"/>
+      <c r="F301" s="10"/>
+      <c r="G301" s="10"/>
+      <c r="H301" s="9"/>
+      <c r="I301" s="9"/>
+      <c r="J301" s="11"/>
+    </row>
+    <row r="302" ht="20.35" customHeight="1">
+      <c r="A302" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B302" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C302" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D302" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E302" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F302" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G302" s="13"/>
+      <c r="H302" s="13"/>
+      <c r="I302" s="13"/>
+      <c r="J302" s="13"/>
     </row>
     <row r="303" ht="20.35" customHeight="1">
-      <c r="A303" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B303" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C303" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D303" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E303" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F303" t="s" s="7">
-        <v>11</v>
+      <c r="A303" s="14"/>
+      <c r="B303" t="s" s="10">
+        <v>166</v>
+      </c>
+      <c r="C303" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D303" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E303" s="13"/>
+      <c r="F303" t="s" s="10">
+        <v>167</v>
       </c>
       <c r="G303" s="13"/>
       <c r="H303" s="13"/>
@@ -7980,7 +8033,7 @@
     <row r="304" ht="20.35" customHeight="1">
       <c r="A304" s="14"/>
       <c r="B304" t="s" s="10">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="C304" t="s" s="10">
         <v>40</v>
@@ -7990,7 +8043,7 @@
       </c>
       <c r="E304" s="13"/>
       <c r="F304" t="s" s="10">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="G304" s="13"/>
       <c r="H304" s="13"/>
@@ -7998,121 +8051,121 @@
       <c r="J304" s="13"/>
     </row>
     <row r="305" ht="20.35" customHeight="1">
-      <c r="A305" s="14"/>
-      <c r="B305" t="s" s="10">
-        <v>206</v>
-      </c>
-      <c r="C305" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D305" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="E305" s="13"/>
-      <c r="F305" t="s" s="10">
-        <v>207</v>
-      </c>
+      <c r="A305" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B305" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C305" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D305" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E305" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="F305" s="13"/>
       <c r="G305" s="13"/>
       <c r="H305" s="13"/>
       <c r="I305" s="13"/>
       <c r="J305" s="13"/>
     </row>
-    <row r="306" ht="20.35" customHeight="1">
+    <row r="306" ht="32.6" customHeight="1">
       <c r="A306" s="14"/>
       <c r="B306" t="s" s="10">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C306" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D306" t="s" s="10">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E306" s="13"/>
-      <c r="F306" t="s" s="10">
-        <v>131</v>
-      </c>
+      <c r="F306" s="13"/>
       <c r="G306" s="13"/>
       <c r="H306" s="13"/>
       <c r="I306" s="13"/>
       <c r="J306" s="13"/>
     </row>
-    <row r="307" ht="20.35" customHeight="1">
-      <c r="A307" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B307" t="s" s="7">
+    <row r="307" ht="49.75" customHeight="1">
+      <c r="A307" t="s" s="8">
+        <v>213</v>
+      </c>
+      <c r="B307" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C307" t="s" s="9">
+        <v>214</v>
+      </c>
+      <c r="D307" s="10"/>
+      <c r="E307" s="10"/>
+      <c r="F307" s="10"/>
+      <c r="G307" s="10"/>
+      <c r="H307" s="9"/>
+      <c r="I307" s="9"/>
+      <c r="J307" s="11"/>
+    </row>
+    <row r="308" ht="20.35" customHeight="1">
+      <c r="A308" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B308" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C307" t="s" s="7">
+      <c r="C308" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="D307" t="s" s="7">
+      <c r="D308" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E308" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F308" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="E307" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="F307" s="13"/>
-      <c r="G307" s="13"/>
-      <c r="H307" s="13"/>
-      <c r="I307" s="13"/>
-      <c r="J307" s="13"/>
-    </row>
-    <row r="308" ht="32.6" customHeight="1">
-      <c r="A308" s="14"/>
-      <c r="B308" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="C308" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D308" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="E308" s="13"/>
-      <c r="F308" s="13"/>
       <c r="G308" s="13"/>
       <c r="H308" s="13"/>
       <c r="I308" s="13"/>
       <c r="J308" s="13"/>
     </row>
-    <row r="309" ht="49.75" customHeight="1">
-      <c r="A309" t="s" s="8">
-        <v>208</v>
-      </c>
-      <c r="B309" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="C309" t="s" s="9">
-        <v>209</v>
-      </c>
-      <c r="D309" s="10"/>
-      <c r="E309" s="10"/>
-      <c r="F309" s="10"/>
-      <c r="G309" s="10"/>
-      <c r="H309" s="9"/>
-      <c r="I309" s="9"/>
-      <c r="J309" s="11"/>
-    </row>
-    <row r="310" ht="20.35" customHeight="1">
-      <c r="A310" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B310" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C310" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D310" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E310" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F310" t="s" s="7">
-        <v>11</v>
+    <row r="309" ht="20.35" customHeight="1">
+      <c r="A309" s="14"/>
+      <c r="B309" t="s" s="10">
+        <v>166</v>
+      </c>
+      <c r="C309" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D309" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E309" s="13"/>
+      <c r="F309" t="s" s="10">
+        <v>167</v>
+      </c>
+      <c r="G309" s="13"/>
+      <c r="H309" s="13"/>
+      <c r="I309" s="13"/>
+      <c r="J309" s="13"/>
+    </row>
+    <row r="310" ht="57.2" customHeight="1">
+      <c r="A310" s="14"/>
+      <c r="B310" t="s" s="10">
+        <v>160</v>
+      </c>
+      <c r="C310" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D310" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E310" s="13"/>
+      <c r="F310" t="s" s="10">
+        <v>161</v>
       </c>
       <c r="G310" s="13"/>
       <c r="H310" s="13"/>
@@ -8120,68 +8173,66 @@
       <c r="J310" s="13"/>
     </row>
     <row r="311" ht="20.35" customHeight="1">
-      <c r="A311" s="14"/>
-      <c r="B311" t="s" s="10">
-        <v>157</v>
-      </c>
-      <c r="C311" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D311" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="E311" s="13"/>
-      <c r="F311" t="s" s="10">
-        <v>158</v>
-      </c>
+      <c r="A311" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B311" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C311" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D311" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E311" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="F311" s="13"/>
       <c r="G311" s="13"/>
       <c r="H311" s="13"/>
       <c r="I311" s="13"/>
       <c r="J311" s="13"/>
     </row>
-    <row r="312" ht="20.35" customHeight="1">
+    <row r="312" ht="32.6" customHeight="1">
       <c r="A312" s="14"/>
       <c r="B312" t="s" s="10">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="C312" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D312" t="s" s="10">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E312" s="13"/>
-      <c r="F312" t="s" s="10">
-        <v>207</v>
-      </c>
+      <c r="F312" s="13"/>
       <c r="G312" s="13"/>
       <c r="H312" s="13"/>
       <c r="I312" s="13"/>
       <c r="J312" s="13"/>
     </row>
-    <row r="313" ht="20.35" customHeight="1">
-      <c r="A313" s="14"/>
-      <c r="B313" t="s" s="10">
-        <v>101</v>
-      </c>
-      <c r="C313" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D313" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="E313" s="13"/>
-      <c r="F313" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="G313" s="13"/>
-      <c r="H313" s="13"/>
-      <c r="I313" s="13"/>
-      <c r="J313" s="13"/>
+    <row r="313" ht="49.75" customHeight="1">
+      <c r="A313" t="s" s="8">
+        <v>215</v>
+      </c>
+      <c r="B313" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C313" t="s" s="9">
+        <v>216</v>
+      </c>
+      <c r="D313" s="10"/>
+      <c r="E313" s="10"/>
+      <c r="F313" s="10"/>
+      <c r="G313" s="10"/>
+      <c r="H313" s="9"/>
+      <c r="I313" s="9"/>
+      <c r="J313" s="11"/>
     </row>
     <row r="314" ht="20.35" customHeight="1">
       <c r="A314" t="s" s="12">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B314" t="s" s="7">
         <v>7</v>
@@ -8190,71 +8241,73 @@
         <v>8</v>
       </c>
       <c r="D314" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E314" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F314" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="E314" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="F314" s="13"/>
       <c r="G314" s="13"/>
       <c r="H314" s="13"/>
       <c r="I314" s="13"/>
       <c r="J314" s="13"/>
     </row>
-    <row r="315" ht="32.6" customHeight="1">
+    <row r="315" ht="20.35" customHeight="1">
       <c r="A315" s="14"/>
       <c r="B315" t="s" s="10">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="C315" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D315" t="s" s="10">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="E315" s="13"/>
-      <c r="F315" s="13"/>
+      <c r="F315" t="s" s="10">
+        <v>167</v>
+      </c>
       <c r="G315" s="13"/>
       <c r="H315" s="13"/>
       <c r="I315" s="13"/>
       <c r="J315" s="13"/>
     </row>
-    <row r="316" ht="49.75" customHeight="1">
-      <c r="A316" t="s" s="8">
-        <v>210</v>
-      </c>
-      <c r="B316" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="C316" t="s" s="9">
-        <v>209</v>
-      </c>
-      <c r="D316" s="10"/>
-      <c r="E316" s="10"/>
-      <c r="F316" s="10"/>
-      <c r="G316" s="10"/>
-      <c r="H316" s="9"/>
-      <c r="I316" s="9"/>
-      <c r="J316" s="11"/>
+    <row r="316" ht="20.35" customHeight="1">
+      <c r="A316" s="14"/>
+      <c r="B316" t="s" s="10">
+        <v>217</v>
+      </c>
+      <c r="C316" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D316" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="E316" s="13"/>
+      <c r="F316" t="s" s="10">
+        <v>218</v>
+      </c>
+      <c r="G316" s="13"/>
+      <c r="H316" s="13"/>
+      <c r="I316" s="13"/>
+      <c r="J316" s="13"/>
     </row>
     <row r="317" ht="20.35" customHeight="1">
-      <c r="A317" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B317" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C317" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D317" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E317" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F317" t="s" s="7">
-        <v>11</v>
+      <c r="A317" s="14"/>
+      <c r="B317" t="s" s="10">
+        <v>103</v>
+      </c>
+      <c r="C317" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D317" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E317" s="13"/>
+      <c r="F317" t="s" s="10">
+        <v>135</v>
       </c>
       <c r="G317" s="13"/>
       <c r="H317" s="13"/>
@@ -8262,121 +8315,121 @@
       <c r="J317" s="13"/>
     </row>
     <row r="318" ht="20.35" customHeight="1">
-      <c r="A318" s="14"/>
-      <c r="B318" t="s" s="10">
-        <v>157</v>
-      </c>
-      <c r="C318" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D318" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="E318" s="13"/>
-      <c r="F318" t="s" s="10">
-        <v>158</v>
-      </c>
+      <c r="A318" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B318" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C318" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D318" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E318" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="F318" s="13"/>
       <c r="G318" s="13"/>
       <c r="H318" s="13"/>
       <c r="I318" s="13"/>
       <c r="J318" s="13"/>
     </row>
-    <row r="319" ht="20.35" customHeight="1">
+    <row r="319" ht="32.6" customHeight="1">
       <c r="A319" s="14"/>
       <c r="B319" t="s" s="10">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="C319" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D319" t="s" s="10">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E319" s="13"/>
-      <c r="F319" t="s" s="10">
-        <v>73</v>
-      </c>
+      <c r="F319" s="13"/>
       <c r="G319" s="13"/>
       <c r="H319" s="13"/>
       <c r="I319" s="13"/>
       <c r="J319" s="13"/>
     </row>
-    <row r="320" ht="20.35" customHeight="1">
-      <c r="A320" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B320" t="s" s="7">
+    <row r="320" ht="49.75" customHeight="1">
+      <c r="A320" t="s" s="8">
+        <v>219</v>
+      </c>
+      <c r="B320" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C320" t="s" s="9">
+        <v>220</v>
+      </c>
+      <c r="D320" s="10"/>
+      <c r="E320" s="10"/>
+      <c r="F320" s="10"/>
+      <c r="G320" s="10"/>
+      <c r="H320" s="9"/>
+      <c r="I320" s="9"/>
+      <c r="J320" s="11"/>
+    </row>
+    <row r="321" ht="20.35" customHeight="1">
+      <c r="A321" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B321" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C320" t="s" s="7">
+      <c r="C321" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="D320" t="s" s="7">
+      <c r="D321" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E321" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F321" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="E320" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="F320" s="13"/>
-      <c r="G320" s="13"/>
-      <c r="H320" s="13"/>
-      <c r="I320" s="13"/>
-      <c r="J320" s="13"/>
-    </row>
-    <row r="321" ht="32.6" customHeight="1">
-      <c r="A321" s="14"/>
-      <c r="B321" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="C321" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D321" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="E321" s="13"/>
-      <c r="F321" s="13"/>
       <c r="G321" s="13"/>
       <c r="H321" s="13"/>
       <c r="I321" s="13"/>
       <c r="J321" s="13"/>
     </row>
-    <row r="322" ht="49.75" customHeight="1">
-      <c r="A322" t="s" s="8">
-        <v>211</v>
-      </c>
-      <c r="B322" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="C322" t="s" s="9">
-        <v>212</v>
-      </c>
-      <c r="D322" s="10"/>
-      <c r="E322" s="10"/>
-      <c r="F322" s="10"/>
-      <c r="G322" s="10"/>
-      <c r="H322" s="9"/>
-      <c r="I322" s="9"/>
-      <c r="J322" s="11"/>
+    <row r="322" ht="20.35" customHeight="1">
+      <c r="A322" s="14"/>
+      <c r="B322" t="s" s="10">
+        <v>166</v>
+      </c>
+      <c r="C322" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D322" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E322" s="13"/>
+      <c r="F322" t="s" s="10">
+        <v>167</v>
+      </c>
+      <c r="G322" s="13"/>
+      <c r="H322" s="13"/>
+      <c r="I322" s="13"/>
+      <c r="J322" s="13"/>
     </row>
     <row r="323" ht="20.35" customHeight="1">
-      <c r="A323" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B323" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C323" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D323" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E323" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F323" t="s" s="7">
-        <v>11</v>
+      <c r="A323" s="14"/>
+      <c r="B323" t="s" s="10">
+        <v>217</v>
+      </c>
+      <c r="C323" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D323" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="E323" s="13"/>
+      <c r="F323" t="s" s="10">
+        <v>218</v>
       </c>
       <c r="G323" s="13"/>
       <c r="H323" s="13"/>
@@ -8386,7 +8439,7 @@
     <row r="324" ht="20.35" customHeight="1">
       <c r="A324" s="14"/>
       <c r="B324" t="s" s="10">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="C324" t="s" s="10">
         <v>40</v>
@@ -8396,7 +8449,7 @@
       </c>
       <c r="E324" s="13"/>
       <c r="F324" t="s" s="10">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G324" s="13"/>
       <c r="H324" s="13"/>
@@ -8404,84 +8457,82 @@
       <c r="J324" s="13"/>
     </row>
     <row r="325" ht="20.35" customHeight="1">
-      <c r="A325" s="12"/>
-      <c r="B325" t="s" s="10">
-        <v>89</v>
-      </c>
-      <c r="C325" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D325" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="E325" s="10">
-        <v>0</v>
-      </c>
-      <c r="F325" t="s" s="10">
-        <v>90</v>
-      </c>
+      <c r="A325" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B325" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C325" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D325" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E325" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="F325" s="13"/>
       <c r="G325" s="13"/>
       <c r="H325" s="13"/>
       <c r="I325" s="13"/>
       <c r="J325" s="13"/>
     </row>
-    <row r="326" ht="20.35" customHeight="1">
-      <c r="A326" s="12"/>
+    <row r="326" ht="32.6" customHeight="1">
+      <c r="A326" s="14"/>
       <c r="B326" t="s" s="10">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="C326" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D326" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="E326" s="10">
-        <v>10</v>
-      </c>
-      <c r="F326" t="s" s="10">
-        <v>92</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E326" s="13"/>
+      <c r="F326" s="13"/>
       <c r="G326" s="13"/>
       <c r="H326" s="13"/>
       <c r="I326" s="13"/>
       <c r="J326" s="13"/>
     </row>
-    <row r="327" ht="20.35" customHeight="1">
-      <c r="A327" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B327" t="s" s="7">
+    <row r="327" ht="49.75" customHeight="1">
+      <c r="A327" t="s" s="8">
+        <v>221</v>
+      </c>
+      <c r="B327" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C327" t="s" s="9">
+        <v>222</v>
+      </c>
+      <c r="D327" s="10"/>
+      <c r="E327" s="10"/>
+      <c r="F327" s="10"/>
+      <c r="G327" s="10"/>
+      <c r="H327" s="9"/>
+      <c r="I327" s="9"/>
+      <c r="J327" s="11"/>
+    </row>
+    <row r="328" ht="20.35" customHeight="1">
+      <c r="A328" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B328" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="C327" t="s" s="7">
+      <c r="C328" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="D327" t="s" s="7">
+      <c r="D328" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E328" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F328" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="E327" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="F327" s="13"/>
-      <c r="G327" s="13"/>
-      <c r="H327" s="13"/>
-      <c r="I327" s="13"/>
-      <c r="J327" s="13"/>
-    </row>
-    <row r="328" ht="32.6" customHeight="1">
-      <c r="A328" s="14"/>
-      <c r="B328" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="C328" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D328" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="E328" s="13"/>
-      <c r="F328" s="13"/>
       <c r="G328" s="13"/>
       <c r="H328" s="13"/>
       <c r="I328" s="13"/>
@@ -8490,16 +8541,18 @@
     <row r="329" ht="20.35" customHeight="1">
       <c r="A329" s="14"/>
       <c r="B329" t="s" s="10">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="C329" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D329" t="s" s="10">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E329" s="13"/>
-      <c r="F329" s="13"/>
+      <c r="F329" t="s" s="10">
+        <v>167</v>
+      </c>
       <c r="G329" s="13"/>
       <c r="H329" s="13"/>
       <c r="I329" s="13"/>
@@ -8508,49 +8561,55 @@
     <row r="330" ht="20.35" customHeight="1">
       <c r="A330" s="14"/>
       <c r="B330" t="s" s="10">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="C330" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D330" t="s" s="10">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E330" s="13"/>
-      <c r="F330" s="13"/>
+      <c r="F330" t="s" s="10">
+        <v>73</v>
+      </c>
       <c r="G330" s="13"/>
       <c r="H330" s="13"/>
       <c r="I330" s="13"/>
       <c r="J330" s="13"/>
     </row>
     <row r="331" ht="20.35" customHeight="1">
-      <c r="A331" s="14"/>
-      <c r="B331" t="s" s="10">
-        <v>95</v>
-      </c>
-      <c r="C331" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D331" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="E331" s="13"/>
+      <c r="A331" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B331" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C331" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D331" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E331" t="s" s="7">
+        <v>52</v>
+      </c>
       <c r="F331" s="13"/>
       <c r="G331" s="13"/>
       <c r="H331" s="13"/>
       <c r="I331" s="13"/>
       <c r="J331" s="13"/>
     </row>
-    <row r="332" ht="20.35" customHeight="1">
+    <row r="332" ht="32.6" customHeight="1">
       <c r="A332" s="14"/>
       <c r="B332" t="s" s="10">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="C332" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D332" t="s" s="10">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E332" s="13"/>
       <c r="F332" s="13"/>
@@ -8559,37 +8618,43 @@
       <c r="I332" s="13"/>
       <c r="J332" s="13"/>
     </row>
-    <row r="333" ht="20.35" customHeight="1">
-      <c r="A333" s="14"/>
-      <c r="B333" t="s" s="10">
-        <v>98</v>
-      </c>
-      <c r="C333" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D333" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="E333" s="13"/>
-      <c r="F333" s="13"/>
-      <c r="G333" s="13"/>
-      <c r="H333" s="13"/>
-      <c r="I333" s="13"/>
-      <c r="J333" s="13"/>
+    <row r="333" ht="49.75" customHeight="1">
+      <c r="A333" t="s" s="8">
+        <v>223</v>
+      </c>
+      <c r="B333" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="C333" t="s" s="9">
+        <v>224</v>
+      </c>
+      <c r="D333" s="10"/>
+      <c r="E333" s="10"/>
+      <c r="F333" s="10"/>
+      <c r="G333" s="10"/>
+      <c r="H333" s="9"/>
+      <c r="I333" s="9"/>
+      <c r="J333" s="11"/>
     </row>
     <row r="334" ht="20.35" customHeight="1">
-      <c r="A334" s="14"/>
-      <c r="B334" t="s" s="10">
-        <v>99</v>
-      </c>
-      <c r="C334" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D334" t="s" s="10">
-        <v>213</v>
-      </c>
-      <c r="E334" s="13"/>
-      <c r="F334" s="13"/>
+      <c r="A334" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B334" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C334" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D334" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E334" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F334" t="s" s="7">
+        <v>11</v>
+      </c>
       <c r="G334" s="13"/>
       <c r="H334" s="13"/>
       <c r="I334" s="13"/>
@@ -8598,85 +8663,99 @@
     <row r="335" ht="20.35" customHeight="1">
       <c r="A335" s="14"/>
       <c r="B335" t="s" s="10">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="C335" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D335" t="s" s="10">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="E335" s="13"/>
-      <c r="F335" s="13"/>
+      <c r="F335" t="s" s="10">
+        <v>167</v>
+      </c>
       <c r="G335" s="13"/>
       <c r="H335" s="13"/>
       <c r="I335" s="13"/>
       <c r="J335" s="13"/>
     </row>
     <row r="336" ht="20.35" customHeight="1">
-      <c r="A336" s="14"/>
+      <c r="A336" s="12"/>
       <c r="B336" t="s" s="10">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C336" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D336" t="s" s="10">
-        <v>214</v>
-      </c>
-      <c r="E336" s="13"/>
-      <c r="F336" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="E336" s="10">
+        <v>0</v>
+      </c>
+      <c r="F336" t="s" s="10">
+        <v>92</v>
+      </c>
       <c r="G336" s="13"/>
       <c r="H336" s="13"/>
       <c r="I336" s="13"/>
       <c r="J336" s="13"/>
     </row>
     <row r="337" ht="20.35" customHeight="1">
-      <c r="A337" s="14"/>
+      <c r="A337" s="12"/>
       <c r="B337" t="s" s="10">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C337" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D337" t="s" s="10">
-        <v>102</v>
-      </c>
-      <c r="E337" s="13"/>
-      <c r="F337" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="E337" s="10">
+        <v>10</v>
+      </c>
+      <c r="F337" t="s" s="10">
+        <v>94</v>
+      </c>
       <c r="G337" s="13"/>
       <c r="H337" s="13"/>
       <c r="I337" s="13"/>
       <c r="J337" s="13"/>
     </row>
     <row r="338" ht="20.35" customHeight="1">
-      <c r="A338" s="14"/>
-      <c r="B338" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="C338" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D338" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="E338" s="13"/>
+      <c r="A338" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B338" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C338" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D338" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E338" t="s" s="7">
+        <v>52</v>
+      </c>
       <c r="F338" s="13"/>
       <c r="G338" s="13"/>
       <c r="H338" s="13"/>
       <c r="I338" s="13"/>
       <c r="J338" s="13"/>
     </row>
-    <row r="339" ht="20.35" customHeight="1">
+    <row r="339" ht="32.6" customHeight="1">
       <c r="A339" s="14"/>
       <c r="B339" t="s" s="10">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C339" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D339" t="s" s="10">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E339" s="13"/>
       <c r="F339" s="13"/>
@@ -8685,63 +8764,55 @@
       <c r="I339" s="13"/>
       <c r="J339" s="13"/>
     </row>
-    <row r="340" ht="49.75" customHeight="1">
-      <c r="A340" t="s" s="8">
-        <v>215</v>
-      </c>
-      <c r="B340" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="C340" t="s" s="9">
-        <v>216</v>
-      </c>
-      <c r="D340" s="10"/>
-      <c r="E340" s="10"/>
-      <c r="F340" s="10"/>
-      <c r="G340" s="10"/>
-      <c r="H340" s="9"/>
-      <c r="I340" s="9"/>
-      <c r="J340" s="11"/>
+    <row r="340" ht="20.35" customHeight="1">
+      <c r="A340" s="14"/>
+      <c r="B340" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="C340" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D340" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="E340" s="13"/>
+      <c r="F340" s="13"/>
+      <c r="G340" s="13"/>
+      <c r="H340" s="13"/>
+      <c r="I340" s="13"/>
+      <c r="J340" s="13"/>
     </row>
     <row r="341" ht="20.35" customHeight="1">
-      <c r="A341" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B341" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C341" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D341" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E341" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F341" t="s" s="7">
-        <v>11</v>
-      </c>
+      <c r="A341" s="14"/>
+      <c r="B341" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="C341" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D341" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="E341" s="13"/>
+      <c r="F341" s="13"/>
       <c r="G341" s="13"/>
       <c r="H341" s="13"/>
       <c r="I341" s="13"/>
       <c r="J341" s="13"/>
     </row>
-    <row r="342" ht="30.35" customHeight="1">
+    <row r="342" ht="20.35" customHeight="1">
       <c r="A342" s="14"/>
       <c r="B342" t="s" s="10">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="C342" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D342" t="s" s="10">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="E342" s="13"/>
-      <c r="F342" t="s" s="10">
-        <v>218</v>
-      </c>
+      <c r="F342" s="13"/>
       <c r="G342" s="13"/>
       <c r="H342" s="13"/>
       <c r="I342" s="13"/>
@@ -8749,9 +8820,15 @@
     </row>
     <row r="343" ht="20.35" customHeight="1">
       <c r="A343" s="14"/>
-      <c r="B343" s="13"/>
-      <c r="C343" s="13"/>
-      <c r="D343" s="13"/>
+      <c r="B343" t="s" s="10">
+        <v>99</v>
+      </c>
+      <c r="C343" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D343" t="s" s="10">
+        <v>65</v>
+      </c>
       <c r="E343" s="13"/>
       <c r="F343" s="13"/>
       <c r="G343" s="13"/>
@@ -8760,37 +8837,33 @@
       <c r="J343" s="13"/>
     </row>
     <row r="344" ht="20.35" customHeight="1">
-      <c r="A344" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B344" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C344" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D344" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E344" t="s" s="7">
-        <v>52</v>
-      </c>
+      <c r="A344" s="14"/>
+      <c r="B344" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="C344" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D344" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="E344" s="13"/>
       <c r="F344" s="13"/>
       <c r="G344" s="13"/>
       <c r="H344" s="13"/>
       <c r="I344" s="13"/>
       <c r="J344" s="13"/>
     </row>
-    <row r="345" ht="32.6" customHeight="1">
+    <row r="345" ht="20.35" customHeight="1">
       <c r="A345" s="14"/>
       <c r="B345" t="s" s="10">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C345" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D345" t="s" s="10">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="E345" s="13"/>
       <c r="F345" s="13"/>
@@ -8802,13 +8875,13 @@
     <row r="346" ht="20.35" customHeight="1">
       <c r="A346" s="14"/>
       <c r="B346" t="s" s="10">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="C346" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D346" t="s" s="10">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="E346" s="13"/>
       <c r="F346" s="13"/>
@@ -8820,13 +8893,13 @@
     <row r="347" ht="20.35" customHeight="1">
       <c r="A347" s="14"/>
       <c r="B347" t="s" s="10">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C347" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D347" t="s" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E347" s="13"/>
       <c r="F347" s="13"/>
@@ -8835,43 +8908,37 @@
       <c r="I347" s="13"/>
       <c r="J347" s="13"/>
     </row>
-    <row r="348" ht="74.35" customHeight="1">
-      <c r="A348" t="s" s="8">
-        <v>220</v>
-      </c>
-      <c r="B348" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="C348" t="s" s="9">
-        <v>221</v>
-      </c>
-      <c r="D348" s="10"/>
-      <c r="E348" s="10"/>
-      <c r="F348" s="10"/>
-      <c r="G348" s="10"/>
-      <c r="H348" s="9"/>
-      <c r="I348" s="9"/>
-      <c r="J348" s="11"/>
+    <row r="348" ht="20.35" customHeight="1">
+      <c r="A348" s="14"/>
+      <c r="B348" t="s" s="10">
+        <v>103</v>
+      </c>
+      <c r="C348" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D348" t="s" s="10">
+        <v>104</v>
+      </c>
+      <c r="E348" s="13"/>
+      <c r="F348" s="13"/>
+      <c r="G348" s="13"/>
+      <c r="H348" s="13"/>
+      <c r="I348" s="13"/>
+      <c r="J348" s="13"/>
     </row>
     <row r="349" ht="20.35" customHeight="1">
-      <c r="A349" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B349" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C349" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D349" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E349" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F349" t="s" s="7">
-        <v>11</v>
-      </c>
+      <c r="A349" s="14"/>
+      <c r="B349" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="C349" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D349" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="E349" s="13"/>
+      <c r="F349" s="13"/>
       <c r="G349" s="13"/>
       <c r="H349" s="13"/>
       <c r="I349" s="13"/>
@@ -8880,96 +8947,88 @@
     <row r="350" ht="20.35" customHeight="1">
       <c r="A350" s="14"/>
       <c r="B350" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C350" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D350" t="s" s="10">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E350" s="13"/>
-      <c r="F350" t="s" s="10">
-        <v>222</v>
-      </c>
+      <c r="F350" s="13"/>
       <c r="G350" s="13"/>
       <c r="H350" s="13"/>
       <c r="I350" s="13"/>
       <c r="J350" s="13"/>
     </row>
-    <row r="351" ht="20.35" customHeight="1">
-      <c r="A351" s="14"/>
-      <c r="B351" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="C351" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D351" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="E351" s="13"/>
-      <c r="F351" t="s" s="10">
-        <v>223</v>
-      </c>
-      <c r="G351" s="13"/>
-      <c r="H351" s="13"/>
-      <c r="I351" s="13"/>
-      <c r="J351" s="13"/>
+    <row r="351" ht="49.75" customHeight="1">
+      <c r="A351" t="s" s="8">
+        <v>227</v>
+      </c>
+      <c r="B351" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="C351" t="s" s="9">
+        <v>228</v>
+      </c>
+      <c r="D351" s="10"/>
+      <c r="E351" s="10"/>
+      <c r="F351" s="10"/>
+      <c r="G351" s="10"/>
+      <c r="H351" s="9"/>
+      <c r="I351" s="9"/>
+      <c r="J351" s="11"/>
     </row>
     <row r="352" ht="20.35" customHeight="1">
-      <c r="A352" s="14"/>
-      <c r="B352" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="C352" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D352" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="E352" s="13"/>
-      <c r="F352" t="s" s="10">
-        <v>224</v>
+      <c r="A352" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B352" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C352" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D352" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E352" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F352" t="s" s="7">
+        <v>11</v>
       </c>
       <c r="G352" s="13"/>
       <c r="H352" s="13"/>
       <c r="I352" s="13"/>
       <c r="J352" s="13"/>
     </row>
-    <row r="353" ht="20.35" customHeight="1">
-      <c r="A353" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B353" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C353" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D353" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E353" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="F353" s="13"/>
+    <row r="353" ht="30.35" customHeight="1">
+      <c r="A353" s="14"/>
+      <c r="B353" t="s" s="10">
+        <v>229</v>
+      </c>
+      <c r="C353" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D353" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E353" s="13"/>
+      <c r="F353" t="s" s="10">
+        <v>230</v>
+      </c>
       <c r="G353" s="13"/>
       <c r="H353" s="13"/>
       <c r="I353" s="13"/>
       <c r="J353" s="13"/>
     </row>
-    <row r="354" ht="32.6" customHeight="1">
+    <row r="354" ht="20.35" customHeight="1">
       <c r="A354" s="14"/>
-      <c r="B354" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="C354" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D354" t="s" s="10">
-        <v>77</v>
-      </c>
+      <c r="B354" s="13"/>
+      <c r="C354" s="13"/>
+      <c r="D354" s="13"/>
       <c r="E354" s="13"/>
       <c r="F354" s="13"/>
       <c r="G354" s="13"/>
@@ -8978,33 +9037,37 @@
       <c r="J354" s="13"/>
     </row>
     <row r="355" ht="20.35" customHeight="1">
-      <c r="A355" s="14"/>
-      <c r="B355" t="s" s="10">
-        <v>106</v>
-      </c>
-      <c r="C355" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D355" t="s" s="10">
-        <v>107</v>
-      </c>
-      <c r="E355" s="13"/>
+      <c r="A355" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B355" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C355" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D355" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E355" t="s" s="7">
+        <v>52</v>
+      </c>
       <c r="F355" s="13"/>
       <c r="G355" s="13"/>
       <c r="H355" s="13"/>
       <c r="I355" s="13"/>
       <c r="J355" s="13"/>
     </row>
-    <row r="356" ht="20.35" customHeight="1">
+    <row r="356" ht="32.6" customHeight="1">
       <c r="A356" s="14"/>
       <c r="B356" t="s" s="10">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C356" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D356" t="s" s="10">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E356" s="13"/>
       <c r="F356" s="13"/>
@@ -9016,13 +9079,13 @@
     <row r="357" ht="20.35" customHeight="1">
       <c r="A357" s="14"/>
       <c r="B357" t="s" s="10">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="C357" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D357" t="s" s="10">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="E357" s="13"/>
       <c r="F357" s="13"/>
@@ -9034,13 +9097,13 @@
     <row r="358" ht="20.35" customHeight="1">
       <c r="A358" s="14"/>
       <c r="B358" t="s" s="10">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C358" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D358" t="s" s="10">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="E358" s="13"/>
       <c r="F358" s="13"/>
@@ -9049,37 +9112,43 @@
       <c r="I358" s="13"/>
       <c r="J358" s="13"/>
     </row>
-    <row r="359" ht="20.35" customHeight="1">
-      <c r="A359" s="14"/>
-      <c r="B359" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="C359" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D359" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="E359" s="13"/>
-      <c r="F359" s="13"/>
-      <c r="G359" s="13"/>
-      <c r="H359" s="13"/>
-      <c r="I359" s="13"/>
-      <c r="J359" s="13"/>
+    <row r="359" ht="49.75" customHeight="1">
+      <c r="A359" t="s" s="8">
+        <v>231</v>
+      </c>
+      <c r="B359" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="C359" t="s" s="9">
+        <v>232</v>
+      </c>
+      <c r="D359" s="10"/>
+      <c r="E359" s="10"/>
+      <c r="F359" s="10"/>
+      <c r="G359" s="10"/>
+      <c r="H359" s="9"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="11"/>
     </row>
     <row r="360" ht="20.35" customHeight="1">
-      <c r="A360" s="14"/>
-      <c r="B360" t="s" s="10">
-        <v>225</v>
-      </c>
-      <c r="C360" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D360" t="s" s="10">
-        <v>226</v>
-      </c>
-      <c r="E360" s="13"/>
-      <c r="F360" s="13"/>
+      <c r="A360" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B360" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C360" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D360" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E360" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F360" t="s" s="7">
+        <v>11</v>
+      </c>
       <c r="G360" s="13"/>
       <c r="H360" s="13"/>
       <c r="I360" s="13"/>
@@ -9087,52 +9156,62 @@
     </row>
     <row r="361" ht="20.35" customHeight="1">
       <c r="A361" s="14"/>
-      <c r="B361" s="13"/>
-      <c r="C361" s="13"/>
-      <c r="D361" s="13"/>
+      <c r="B361" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="C361" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D361" t="s" s="10">
+        <v>14</v>
+      </c>
       <c r="E361" s="13"/>
-      <c r="F361" s="13"/>
+      <c r="F361" t="s" s="10">
+        <v>56</v>
+      </c>
       <c r="G361" s="13"/>
       <c r="H361" s="13"/>
       <c r="I361" s="13"/>
       <c r="J361" s="13"/>
     </row>
-    <row r="362" ht="74.35" customHeight="1">
-      <c r="A362" t="s" s="8">
-        <v>227</v>
-      </c>
-      <c r="B362" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="C362" t="s" s="9">
-        <v>228</v>
-      </c>
-      <c r="D362" s="10"/>
-      <c r="E362" s="10"/>
-      <c r="F362" s="10"/>
-      <c r="G362" s="10"/>
-      <c r="H362" s="9"/>
-      <c r="I362" s="9"/>
-      <c r="J362" s="11"/>
+    <row r="362" ht="20.35" customHeight="1">
+      <c r="A362" s="12"/>
+      <c r="B362" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="C362" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D362" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="E362" s="10">
+        <v>0</v>
+      </c>
+      <c r="F362" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="G362" s="13"/>
+      <c r="H362" s="13"/>
+      <c r="I362" s="13"/>
+      <c r="J362" s="13"/>
     </row>
     <row r="363" ht="20.35" customHeight="1">
-      <c r="A363" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="B363" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C363" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D363" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E363" t="s" s="7">
+      <c r="A363" s="12"/>
+      <c r="B363" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="C363" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D363" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="E363" s="10">
         <v>10</v>
       </c>
-      <c r="F363" t="s" s="7">
-        <v>11</v>
+      <c r="F363" t="s" s="10">
+        <v>94</v>
       </c>
       <c r="G363" s="13"/>
       <c r="H363" s="13"/>
@@ -9140,40 +9219,40 @@
       <c r="J363" s="13"/>
     </row>
     <row r="364" ht="20.35" customHeight="1">
-      <c r="A364" s="14"/>
-      <c r="B364" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="C364" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="D364" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="E364" s="13"/>
-      <c r="F364" t="s" s="10">
-        <v>222</v>
-      </c>
+      <c r="A364" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B364" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C364" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D364" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E364" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="F364" s="13"/>
       <c r="G364" s="13"/>
       <c r="H364" s="13"/>
       <c r="I364" s="13"/>
       <c r="J364" s="13"/>
     </row>
-    <row r="365" ht="20.35" customHeight="1">
+    <row r="365" ht="32.6" customHeight="1">
       <c r="A365" s="14"/>
       <c r="B365" t="s" s="10">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C365" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D365" t="s" s="10">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E365" s="13"/>
-      <c r="F365" t="s" s="10">
-        <v>223</v>
-      </c>
+      <c r="F365" s="13"/>
       <c r="G365" s="13"/>
       <c r="H365" s="13"/>
       <c r="I365" s="13"/>
@@ -9182,55 +9261,49 @@
     <row r="366" ht="20.35" customHeight="1">
       <c r="A366" s="14"/>
       <c r="B366" t="s" s="10">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C366" t="s" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D366" t="s" s="10">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E366" s="13"/>
-      <c r="F366" t="s" s="10">
-        <v>229</v>
-      </c>
+      <c r="F366" s="13"/>
       <c r="G366" s="13"/>
       <c r="H366" s="13"/>
       <c r="I366" s="13"/>
       <c r="J366" s="13"/>
     </row>
     <row r="367" ht="20.35" customHeight="1">
-      <c r="A367" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B367" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C367" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D367" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="E367" t="s" s="7">
-        <v>52</v>
-      </c>
+      <c r="A367" s="14"/>
+      <c r="B367" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="C367" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D367" t="s" s="10">
+        <v>234</v>
+      </c>
+      <c r="E367" s="13"/>
       <c r="F367" s="13"/>
       <c r="G367" s="13"/>
       <c r="H367" s="13"/>
       <c r="I367" s="13"/>
       <c r="J367" s="13"/>
     </row>
-    <row r="368" ht="32.6" customHeight="1">
+    <row r="368" ht="20.35" customHeight="1">
       <c r="A368" s="14"/>
       <c r="B368" t="s" s="10">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="C368" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D368" t="s" s="10">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E368" s="13"/>
       <c r="F368" s="13"/>
@@ -9242,13 +9315,13 @@
     <row r="369" ht="20.35" customHeight="1">
       <c r="A369" s="14"/>
       <c r="B369" t="s" s="10">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="C369" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D369" t="s" s="10">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="E369" s="13"/>
       <c r="F369" s="13"/>
@@ -9260,13 +9333,13 @@
     <row r="370" ht="20.35" customHeight="1">
       <c r="A370" s="14"/>
       <c r="B370" t="s" s="10">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="C370" t="s" s="10">
         <v>13</v>
       </c>
       <c r="D370" t="s" s="10">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="E370" s="13"/>
       <c r="F370" s="13"/>
@@ -9278,13 +9351,13 @@
     <row r="371" ht="20.35" customHeight="1">
       <c r="A371" s="14"/>
       <c r="B371" t="s" s="10">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="C371" t="s" s="10">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="D371" t="s" s="10">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="E371" s="13"/>
       <c r="F371" s="13"/>
@@ -9293,16 +9366,16 @@
       <c r="I371" s="13"/>
       <c r="J371" s="13"/>
     </row>
-    <row r="372" ht="20.35" customHeight="1">
+    <row r="372" ht="57.2" customHeight="1">
       <c r="A372" s="14"/>
       <c r="B372" t="s" s="10">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C372" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D372" t="s" s="10">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="E372" s="13"/>
       <c r="F372" s="13"/>
@@ -9314,13 +9387,13 @@
     <row r="373" ht="20.35" customHeight="1">
       <c r="A373" s="14"/>
       <c r="B373" t="s" s="10">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="C373" t="s" s="10">
         <v>40</v>
       </c>
       <c r="D373" t="s" s="10">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="E373" s="13"/>
       <c r="F373" s="13"/>
@@ -9329,56 +9402,62 @@
       <c r="I373" s="13"/>
       <c r="J373" s="13"/>
     </row>
-    <row r="374" ht="20.35" customHeight="1">
-      <c r="A374" s="14"/>
-      <c r="B374" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="C374" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D374" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="E374" s="13"/>
-      <c r="F374" s="13"/>
-      <c r="G374" s="13"/>
+    <row r="374" ht="49.75" customHeight="1">
+      <c r="A374" t="s" s="8">
+        <v>238</v>
+      </c>
+      <c r="B374" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="C374" t="s" s="9">
+        <v>239</v>
+      </c>
+      <c r="D374" s="10"/>
+      <c r="E374" s="10"/>
+      <c r="F374" s="10"/>
+      <c r="G374" s="10"/>
       <c r="H374" s="13"/>
       <c r="I374" s="13"/>
       <c r="J374" s="13"/>
     </row>
     <row r="375" ht="20.35" customHeight="1">
-      <c r="A375" s="14"/>
-      <c r="B375" t="s" s="10">
-        <v>130</v>
-      </c>
-      <c r="C375" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D375" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="E375" s="13"/>
-      <c r="F375" s="13"/>
+      <c r="A375" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B375" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C375" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D375" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E375" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F375" t="s" s="7">
+        <v>11</v>
+      </c>
       <c r="G375" s="13"/>
       <c r="H375" s="13"/>
       <c r="I375" s="13"/>
       <c r="J375" s="13"/>
     </row>
-    <row r="376" ht="30.35" customHeight="1">
+    <row r="376" ht="20.35" customHeight="1">
       <c r="A376" s="14"/>
       <c r="B376" t="s" s="10">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="C376" t="s" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D376" t="s" s="10">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="E376" s="13"/>
       <c r="F376" t="s" s="10">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="G376" s="13"/>
       <c r="H376" s="13"/>
@@ -9386,58 +9465,104 @@
       <c r="J376" s="13"/>
     </row>
     <row r="377" ht="20.35" customHeight="1">
-      <c r="A377" s="14"/>
-      <c r="B377" s="13"/>
-      <c r="C377" s="13"/>
-      <c r="D377" s="13"/>
-      <c r="E377" s="13"/>
-      <c r="F377" s="13"/>
+      <c r="A377" s="12"/>
+      <c r="B377" t="s" s="10">
+        <v>91</v>
+      </c>
+      <c r="C377" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D377" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="E377" s="10">
+        <v>0</v>
+      </c>
+      <c r="F377" t="s" s="10">
+        <v>92</v>
+      </c>
       <c r="G377" s="13"/>
       <c r="H377" s="13"/>
       <c r="I377" s="13"/>
       <c r="J377" s="13"/>
     </row>
     <row r="378" ht="20.35" customHeight="1">
-      <c r="A378" s="14"/>
-      <c r="B378" s="13"/>
-      <c r="C378" s="13"/>
-      <c r="D378" s="13"/>
-      <c r="E378" s="13"/>
-      <c r="F378" s="13"/>
+      <c r="A378" s="12"/>
+      <c r="B378" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="C378" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D378" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="E378" s="10">
+        <v>10</v>
+      </c>
+      <c r="F378" t="s" s="10">
+        <v>94</v>
+      </c>
       <c r="G378" s="13"/>
       <c r="H378" s="13"/>
       <c r="I378" s="13"/>
       <c r="J378" s="13"/>
     </row>
-    <row r="379" ht="20.35" customHeight="1">
+    <row r="379" ht="57.2" customHeight="1">
       <c r="A379" s="14"/>
-      <c r="B379" s="13"/>
-      <c r="C379" s="13"/>
-      <c r="D379" s="13"/>
-      <c r="E379" s="13"/>
-      <c r="F379" s="13"/>
+      <c r="B379" t="s" s="10">
+        <v>160</v>
+      </c>
+      <c r="C379" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D379" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="E379" s="10">
+        <v>2</v>
+      </c>
+      <c r="F379" t="s" s="10">
+        <v>161</v>
+      </c>
       <c r="G379" s="13"/>
       <c r="H379" s="13"/>
       <c r="I379" s="13"/>
       <c r="J379" s="13"/>
     </row>
     <row r="380" ht="20.35" customHeight="1">
-      <c r="A380" s="14"/>
-      <c r="B380" s="13"/>
-      <c r="C380" s="13"/>
-      <c r="D380" s="13"/>
-      <c r="E380" s="13"/>
+      <c r="A380" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B380" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C380" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D380" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E380" t="s" s="7">
+        <v>52</v>
+      </c>
       <c r="F380" s="13"/>
       <c r="G380" s="13"/>
       <c r="H380" s="13"/>
       <c r="I380" s="13"/>
       <c r="J380" s="13"/>
     </row>
-    <row r="381" ht="20.35" customHeight="1">
+    <row r="381" ht="32.6" customHeight="1">
       <c r="A381" s="14"/>
-      <c r="B381" s="13"/>
-      <c r="C381" s="13"/>
-      <c r="D381" s="13"/>
+      <c r="B381" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="C381" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D381" t="s" s="10">
+        <v>77</v>
+      </c>
       <c r="E381" s="13"/>
       <c r="F381" s="13"/>
       <c r="G381" s="13"/>
@@ -9447,8 +9572,12 @@
     </row>
     <row r="382" ht="20.35" customHeight="1">
       <c r="A382" s="14"/>
-      <c r="B382" s="13"/>
-      <c r="C382" s="13"/>
+      <c r="B382" t="s" s="10">
+        <v>184</v>
+      </c>
+      <c r="C382" t="s" s="10">
+        <v>13</v>
+      </c>
       <c r="D382" s="13"/>
       <c r="E382" s="13"/>
       <c r="F382" s="13"/>
@@ -9459,9 +9588,15 @@
     </row>
     <row r="383" ht="20.35" customHeight="1">
       <c r="A383" s="14"/>
-      <c r="B383" s="13"/>
-      <c r="C383" s="13"/>
-      <c r="D383" s="13"/>
+      <c r="B383" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="C383" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D383" t="s" s="10">
+        <v>174</v>
+      </c>
       <c r="E383" s="13"/>
       <c r="F383" s="13"/>
       <c r="G383" s="13"/>
@@ -9471,9 +9606,15 @@
     </row>
     <row r="384" ht="20.35" customHeight="1">
       <c r="A384" s="14"/>
-      <c r="B384" s="13"/>
-      <c r="C384" s="13"/>
-      <c r="D384" s="13"/>
+      <c r="B384" t="s" s="10">
+        <v>166</v>
+      </c>
+      <c r="C384" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D384" t="s" s="10">
+        <v>167</v>
+      </c>
       <c r="E384" s="13"/>
       <c r="F384" s="13"/>
       <c r="G384" s="13"/>
@@ -9483,9 +9624,15 @@
     </row>
     <row r="385" ht="20.35" customHeight="1">
       <c r="A385" s="14"/>
-      <c r="B385" s="13"/>
-      <c r="C385" s="13"/>
-      <c r="D385" s="13"/>
+      <c r="B385" t="s" s="10">
+        <v>172</v>
+      </c>
+      <c r="C385" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D385" t="s" s="10">
+        <v>173</v>
+      </c>
       <c r="E385" s="13"/>
       <c r="F385" s="13"/>
       <c r="G385" s="13"/>
@@ -9495,9 +9642,15 @@
     </row>
     <row r="386" ht="20.35" customHeight="1">
       <c r="A386" s="14"/>
-      <c r="B386" s="13"/>
-      <c r="C386" s="13"/>
-      <c r="D386" s="13"/>
+      <c r="B386" t="s" s="10">
+        <v>170</v>
+      </c>
+      <c r="C386" t="s" s="10">
+        <v>195</v>
+      </c>
+      <c r="D386" t="s" s="10">
+        <v>235</v>
+      </c>
       <c r="E386" s="13"/>
       <c r="F386" s="13"/>
       <c r="G386" s="13"/>
@@ -9505,11 +9658,17 @@
       <c r="I386" s="13"/>
       <c r="J386" s="13"/>
     </row>
-    <row r="387" ht="20.35" customHeight="1">
+    <row r="387" ht="57.2" customHeight="1">
       <c r="A387" s="14"/>
-      <c r="B387" s="13"/>
-      <c r="C387" s="13"/>
-      <c r="D387" s="13"/>
+      <c r="B387" t="s" s="10">
+        <v>160</v>
+      </c>
+      <c r="C387" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D387" t="s" s="10">
+        <v>161</v>
+      </c>
       <c r="E387" s="13"/>
       <c r="F387" s="13"/>
       <c r="G387" s="13"/>
@@ -9519,9 +9678,15 @@
     </row>
     <row r="388" ht="20.35" customHeight="1">
       <c r="A388" s="14"/>
-      <c r="B388" s="13"/>
-      <c r="C388" s="13"/>
-      <c r="D388" s="13"/>
+      <c r="B388" t="s" s="10">
+        <v>240</v>
+      </c>
+      <c r="C388" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D388" t="s" s="10">
+        <v>56</v>
+      </c>
       <c r="E388" s="13"/>
       <c r="F388" s="13"/>
       <c r="G388" s="13"/>
@@ -9553,51 +9718,812 @@
       <c r="I390" s="13"/>
       <c r="J390" s="13"/>
     </row>
-    <row r="391" ht="20.35" customHeight="1">
-      <c r="A391" s="14"/>
-      <c r="B391" s="13"/>
-      <c r="C391" s="13"/>
-      <c r="D391" s="13"/>
-      <c r="E391" s="13"/>
-      <c r="F391" s="13"/>
-      <c r="G391" s="13"/>
-      <c r="H391" s="13"/>
-      <c r="I391" s="13"/>
-      <c r="J391" s="13"/>
+    <row r="391" ht="74.35" customHeight="1">
+      <c r="A391" t="s" s="8">
+        <v>241</v>
+      </c>
+      <c r="B391" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C391" t="s" s="9">
+        <v>242</v>
+      </c>
+      <c r="D391" s="10"/>
+      <c r="E391" s="10"/>
+      <c r="F391" s="10"/>
+      <c r="G391" s="10"/>
+      <c r="H391" s="9"/>
+      <c r="I391" s="9"/>
+      <c r="J391" s="11"/>
+    </row>
+    <row r="392" ht="20.35" customHeight="1">
+      <c r="A392" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B392" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C392" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D392" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E392" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F392" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G392" s="13"/>
+      <c r="H392" s="13"/>
+      <c r="I392" s="13"/>
+      <c r="J392" s="13"/>
+    </row>
+    <row r="393" ht="20.35" customHeight="1">
+      <c r="A393" s="14"/>
+      <c r="B393" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="C393" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D393" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E393" s="13"/>
+      <c r="F393" t="s" s="10">
+        <v>243</v>
+      </c>
+      <c r="G393" s="13"/>
+      <c r="H393" s="13"/>
+      <c r="I393" s="13"/>
+      <c r="J393" s="13"/>
+    </row>
+    <row r="394" ht="20.35" customHeight="1">
+      <c r="A394" s="14"/>
+      <c r="B394" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="C394" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D394" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E394" s="13"/>
+      <c r="F394" t="s" s="10">
+        <v>244</v>
+      </c>
+      <c r="G394" s="13"/>
+      <c r="H394" s="13"/>
+      <c r="I394" s="13"/>
+      <c r="J394" s="13"/>
+    </row>
+    <row r="395" ht="20.35" customHeight="1">
+      <c r="A395" s="14"/>
+      <c r="B395" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="C395" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D395" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="E395" s="13"/>
+      <c r="F395" t="s" s="10">
+        <v>245</v>
+      </c>
+      <c r="G395" s="13"/>
+      <c r="H395" s="13"/>
+      <c r="I395" s="13"/>
+      <c r="J395" s="13"/>
+    </row>
+    <row r="396" ht="52.6" customHeight="1">
+      <c r="A396" s="14"/>
+      <c r="B396" t="s" s="10">
+        <v>126</v>
+      </c>
+      <c r="C396" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D396" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="E396" s="13"/>
+      <c r="F396" t="s" s="10">
+        <v>127</v>
+      </c>
+      <c r="G396" s="13"/>
+      <c r="H396" s="13"/>
+      <c r="I396" s="13"/>
+      <c r="J396" s="13"/>
+    </row>
+    <row r="397" ht="20.35" customHeight="1">
+      <c r="A397" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B397" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C397" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D397" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E397" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="F397" s="13"/>
+      <c r="G397" s="13"/>
+      <c r="H397" s="13"/>
+      <c r="I397" s="13"/>
+      <c r="J397" s="13"/>
+    </row>
+    <row r="398" ht="32.6" customHeight="1">
+      <c r="A398" s="14"/>
+      <c r="B398" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="C398" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D398" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="E398" s="13"/>
+      <c r="F398" s="13"/>
+      <c r="G398" s="13"/>
+      <c r="H398" s="13"/>
+      <c r="I398" s="13"/>
+      <c r="J398" s="13"/>
+    </row>
+    <row r="399" ht="20.35" customHeight="1">
+      <c r="A399" s="14"/>
+      <c r="B399" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="C399" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D399" t="s" s="10">
+        <v>109</v>
+      </c>
+      <c r="E399" s="13"/>
+      <c r="F399" s="13"/>
+      <c r="G399" s="13"/>
+      <c r="H399" s="13"/>
+      <c r="I399" s="13"/>
+      <c r="J399" s="13"/>
+    </row>
+    <row r="400" ht="20.35" customHeight="1">
+      <c r="A400" s="14"/>
+      <c r="B400" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="C400" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D400" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="E400" s="13"/>
+      <c r="F400" s="13"/>
+      <c r="G400" s="13"/>
+      <c r="H400" s="13"/>
+      <c r="I400" s="13"/>
+      <c r="J400" s="13"/>
+    </row>
+    <row r="401" ht="20.35" customHeight="1">
+      <c r="A401" s="14"/>
+      <c r="B401" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="C401" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D401" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="E401" s="13"/>
+      <c r="F401" s="13"/>
+      <c r="G401" s="13"/>
+      <c r="H401" s="13"/>
+      <c r="I401" s="13"/>
+      <c r="J401" s="13"/>
+    </row>
+    <row r="402" ht="20.35" customHeight="1">
+      <c r="A402" s="14"/>
+      <c r="B402" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="C402" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D402" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="E402" s="13"/>
+      <c r="F402" s="13"/>
+      <c r="G402" s="13"/>
+      <c r="H402" s="13"/>
+      <c r="I402" s="13"/>
+      <c r="J402" s="13"/>
+    </row>
+    <row r="403" ht="20.35" customHeight="1">
+      <c r="A403" s="14"/>
+      <c r="B403" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="C403" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D403" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="E403" s="13"/>
+      <c r="F403" s="13"/>
+      <c r="G403" s="13"/>
+      <c r="H403" s="13"/>
+      <c r="I403" s="13"/>
+      <c r="J403" s="13"/>
+    </row>
+    <row r="404" ht="20.35" customHeight="1">
+      <c r="A404" s="14"/>
+      <c r="B404" t="s" s="10">
+        <v>246</v>
+      </c>
+      <c r="C404" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D404" t="s" s="10">
+        <v>247</v>
+      </c>
+      <c r="E404" s="13"/>
+      <c r="F404" s="13"/>
+      <c r="G404" s="13"/>
+      <c r="H404" s="13"/>
+      <c r="I404" s="13"/>
+      <c r="J404" s="13"/>
+    </row>
+    <row r="405" ht="20.35" customHeight="1">
+      <c r="A405" s="14"/>
+      <c r="B405" s="13"/>
+      <c r="C405" s="13"/>
+      <c r="D405" s="13"/>
+      <c r="E405" s="13"/>
+      <c r="F405" s="13"/>
+      <c r="G405" s="13"/>
+      <c r="H405" s="13"/>
+      <c r="I405" s="13"/>
+      <c r="J405" s="13"/>
+    </row>
+    <row r="406" ht="74.35" customHeight="1">
+      <c r="A406" t="s" s="8">
+        <v>248</v>
+      </c>
+      <c r="B406" t="s" s="9">
+        <v>4</v>
+      </c>
+      <c r="C406" t="s" s="9">
+        <v>249</v>
+      </c>
+      <c r="D406" s="10"/>
+      <c r="E406" s="10"/>
+      <c r="F406" s="10"/>
+      <c r="G406" s="10"/>
+      <c r="H406" s="9"/>
+      <c r="I406" s="9"/>
+      <c r="J406" s="11"/>
+    </row>
+    <row r="407" ht="20.35" customHeight="1">
+      <c r="A407" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="B407" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C407" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D407" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E407" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="F407" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="G407" s="13"/>
+      <c r="H407" s="13"/>
+      <c r="I407" s="13"/>
+      <c r="J407" s="13"/>
+    </row>
+    <row r="408" ht="20.35" customHeight="1">
+      <c r="A408" s="14"/>
+      <c r="B408" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="C408" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D408" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E408" s="13"/>
+      <c r="F408" t="s" s="10">
+        <v>243</v>
+      </c>
+      <c r="G408" s="13"/>
+      <c r="H408" s="13"/>
+      <c r="I408" s="13"/>
+      <c r="J408" s="13"/>
+    </row>
+    <row r="409" ht="20.35" customHeight="1">
+      <c r="A409" s="14"/>
+      <c r="B409" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="C409" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D409" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="E409" s="13"/>
+      <c r="F409" t="s" s="10">
+        <v>244</v>
+      </c>
+      <c r="G409" s="13"/>
+      <c r="H409" s="13"/>
+      <c r="I409" s="13"/>
+      <c r="J409" s="13"/>
+    </row>
+    <row r="410" ht="20.35" customHeight="1">
+      <c r="A410" s="14"/>
+      <c r="B410" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="C410" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D410" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="E410" s="13"/>
+      <c r="F410" t="s" s="10">
+        <v>250</v>
+      </c>
+      <c r="G410" s="13"/>
+      <c r="H410" s="13"/>
+      <c r="I410" s="13"/>
+      <c r="J410" s="13"/>
+    </row>
+    <row r="411" ht="52.6" customHeight="1">
+      <c r="A411" s="14"/>
+      <c r="B411" t="s" s="10">
+        <v>126</v>
+      </c>
+      <c r="C411" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D411" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="E411" s="13"/>
+      <c r="F411" t="s" s="10">
+        <v>127</v>
+      </c>
+      <c r="G411" s="13"/>
+      <c r="H411" s="13"/>
+      <c r="I411" s="13"/>
+      <c r="J411" s="13"/>
+    </row>
+    <row r="412" ht="20.35" customHeight="1">
+      <c r="A412" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B412" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C412" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D412" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E412" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="F412" s="13"/>
+      <c r="G412" s="13"/>
+      <c r="H412" s="13"/>
+      <c r="I412" s="13"/>
+      <c r="J412" s="13"/>
+    </row>
+    <row r="413" ht="32.6" customHeight="1">
+      <c r="A413" s="14"/>
+      <c r="B413" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="C413" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D413" t="s" s="10">
+        <v>77</v>
+      </c>
+      <c r="E413" s="13"/>
+      <c r="F413" s="13"/>
+      <c r="G413" s="13"/>
+      <c r="H413" s="13"/>
+      <c r="I413" s="13"/>
+      <c r="J413" s="13"/>
+    </row>
+    <row r="414" ht="20.35" customHeight="1">
+      <c r="A414" s="14"/>
+      <c r="B414" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="C414" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D414" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="E414" s="13"/>
+      <c r="F414" s="13"/>
+      <c r="G414" s="13"/>
+      <c r="H414" s="13"/>
+      <c r="I414" s="13"/>
+      <c r="J414" s="13"/>
+    </row>
+    <row r="415" ht="20.35" customHeight="1">
+      <c r="A415" s="14"/>
+      <c r="B415" t="s" s="10">
+        <v>101</v>
+      </c>
+      <c r="C415" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D415" t="s" s="10">
+        <v>102</v>
+      </c>
+      <c r="E415" s="13"/>
+      <c r="F415" s="13"/>
+      <c r="G415" s="13"/>
+      <c r="H415" s="13"/>
+      <c r="I415" s="13"/>
+      <c r="J415" s="13"/>
+    </row>
+    <row r="416" ht="20.35" customHeight="1">
+      <c r="A416" s="14"/>
+      <c r="B416" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="C416" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D416" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="E416" s="13"/>
+      <c r="F416" s="13"/>
+      <c r="G416" s="13"/>
+      <c r="H416" s="13"/>
+      <c r="I416" s="13"/>
+      <c r="J416" s="13"/>
+    </row>
+    <row r="417" ht="20.35" customHeight="1">
+      <c r="A417" s="14"/>
+      <c r="B417" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="C417" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D417" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="E417" s="13"/>
+      <c r="F417" s="13"/>
+      <c r="G417" s="13"/>
+      <c r="H417" s="13"/>
+      <c r="I417" s="13"/>
+      <c r="J417" s="13"/>
+    </row>
+    <row r="418" ht="20.35" customHeight="1">
+      <c r="A418" s="14"/>
+      <c r="B418" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="C418" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D418" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="E418" s="13"/>
+      <c r="F418" s="13"/>
+      <c r="G418" s="13"/>
+      <c r="H418" s="13"/>
+      <c r="I418" s="13"/>
+      <c r="J418" s="13"/>
+    </row>
+    <row r="419" ht="20.35" customHeight="1">
+      <c r="A419" s="14"/>
+      <c r="B419" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="C419" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D419" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="E419" s="13"/>
+      <c r="F419" s="13"/>
+      <c r="G419" s="13"/>
+      <c r="H419" s="13"/>
+      <c r="I419" s="13"/>
+      <c r="J419" s="13"/>
+    </row>
+    <row r="420" ht="20.35" customHeight="1">
+      <c r="A420" s="14"/>
+      <c r="B420" t="s" s="10">
+        <v>134</v>
+      </c>
+      <c r="C420" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D420" t="s" s="10">
+        <v>135</v>
+      </c>
+      <c r="E420" s="13"/>
+      <c r="F420" s="13"/>
+      <c r="G420" s="13"/>
+      <c r="H420" s="13"/>
+      <c r="I420" s="13"/>
+      <c r="J420" s="13"/>
+    </row>
+    <row r="421" ht="30.35" customHeight="1">
+      <c r="A421" s="14"/>
+      <c r="B421" t="s" s="10">
+        <v>251</v>
+      </c>
+      <c r="C421" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="D421" t="s" s="10">
+        <v>252</v>
+      </c>
+      <c r="E421" s="13"/>
+      <c r="F421" t="s" s="10">
+        <v>253</v>
+      </c>
+      <c r="G421" s="13"/>
+      <c r="H421" s="13"/>
+      <c r="I421" s="13"/>
+      <c r="J421" s="13"/>
+    </row>
+    <row r="422" ht="20.35" customHeight="1">
+      <c r="A422" s="14"/>
+      <c r="B422" s="13"/>
+      <c r="C422" s="13"/>
+      <c r="D422" s="13"/>
+      <c r="E422" s="13"/>
+      <c r="F422" s="13"/>
+      <c r="G422" s="13"/>
+      <c r="H422" s="13"/>
+      <c r="I422" s="13"/>
+      <c r="J422" s="13"/>
+    </row>
+    <row r="423" ht="20.35" customHeight="1">
+      <c r="A423" s="14"/>
+      <c r="B423" s="13"/>
+      <c r="C423" s="13"/>
+      <c r="D423" s="13"/>
+      <c r="E423" s="13"/>
+      <c r="F423" s="13"/>
+      <c r="G423" s="13"/>
+      <c r="H423" s="13"/>
+      <c r="I423" s="13"/>
+      <c r="J423" s="13"/>
+    </row>
+    <row r="424" ht="20.35" customHeight="1">
+      <c r="A424" s="14"/>
+      <c r="B424" s="13"/>
+      <c r="C424" s="13"/>
+      <c r="D424" s="13"/>
+      <c r="E424" s="13"/>
+      <c r="F424" s="13"/>
+      <c r="G424" s="13"/>
+      <c r="H424" s="13"/>
+      <c r="I424" s="13"/>
+      <c r="J424" s="13"/>
+    </row>
+    <row r="425" ht="20.35" customHeight="1">
+      <c r="A425" s="14"/>
+      <c r="B425" s="13"/>
+      <c r="C425" s="13"/>
+      <c r="D425" s="13"/>
+      <c r="E425" s="13"/>
+      <c r="F425" s="13"/>
+      <c r="G425" s="13"/>
+      <c r="H425" s="13"/>
+      <c r="I425" s="13"/>
+      <c r="J425" s="13"/>
+    </row>
+    <row r="426" ht="20.35" customHeight="1">
+      <c r="A426" s="14"/>
+      <c r="B426" s="13"/>
+      <c r="C426" s="13"/>
+      <c r="D426" s="13"/>
+      <c r="E426" s="13"/>
+      <c r="F426" s="13"/>
+      <c r="G426" s="13"/>
+      <c r="H426" s="13"/>
+      <c r="I426" s="13"/>
+      <c r="J426" s="13"/>
+    </row>
+    <row r="427" ht="20.35" customHeight="1">
+      <c r="A427" s="14"/>
+      <c r="B427" s="13"/>
+      <c r="C427" s="13"/>
+      <c r="D427" s="13"/>
+      <c r="E427" s="13"/>
+      <c r="F427" s="13"/>
+      <c r="G427" s="13"/>
+      <c r="H427" s="13"/>
+      <c r="I427" s="13"/>
+      <c r="J427" s="13"/>
+    </row>
+    <row r="428" ht="20.35" customHeight="1">
+      <c r="A428" s="14"/>
+      <c r="B428" s="13"/>
+      <c r="C428" s="13"/>
+      <c r="D428" s="13"/>
+      <c r="E428" s="13"/>
+      <c r="F428" s="13"/>
+      <c r="G428" s="13"/>
+      <c r="H428" s="13"/>
+      <c r="I428" s="13"/>
+      <c r="J428" s="13"/>
+    </row>
+    <row r="429" ht="20.35" customHeight="1">
+      <c r="A429" s="14"/>
+      <c r="B429" s="13"/>
+      <c r="C429" s="13"/>
+      <c r="D429" s="13"/>
+      <c r="E429" s="13"/>
+      <c r="F429" s="13"/>
+      <c r="G429" s="13"/>
+      <c r="H429" s="13"/>
+      <c r="I429" s="13"/>
+      <c r="J429" s="13"/>
+    </row>
+    <row r="430" ht="20.35" customHeight="1">
+      <c r="A430" s="14"/>
+      <c r="B430" s="13"/>
+      <c r="C430" s="13"/>
+      <c r="D430" s="13"/>
+      <c r="E430" s="13"/>
+      <c r="F430" s="13"/>
+      <c r="G430" s="13"/>
+      <c r="H430" s="13"/>
+      <c r="I430" s="13"/>
+      <c r="J430" s="13"/>
+    </row>
+    <row r="431" ht="20.35" customHeight="1">
+      <c r="A431" s="14"/>
+      <c r="B431" s="13"/>
+      <c r="C431" s="13"/>
+      <c r="D431" s="13"/>
+      <c r="E431" s="13"/>
+      <c r="F431" s="13"/>
+      <c r="G431" s="13"/>
+      <c r="H431" s="13"/>
+      <c r="I431" s="13"/>
+      <c r="J431" s="13"/>
+    </row>
+    <row r="432" ht="20.35" customHeight="1">
+      <c r="A432" s="14"/>
+      <c r="B432" s="13"/>
+      <c r="C432" s="13"/>
+      <c r="D432" s="13"/>
+      <c r="E432" s="13"/>
+      <c r="F432" s="13"/>
+      <c r="G432" s="13"/>
+      <c r="H432" s="13"/>
+      <c r="I432" s="13"/>
+      <c r="J432" s="13"/>
+    </row>
+    <row r="433" ht="20.35" customHeight="1">
+      <c r="A433" s="14"/>
+      <c r="B433" s="13"/>
+      <c r="C433" s="13"/>
+      <c r="D433" s="13"/>
+      <c r="E433" s="13"/>
+      <c r="F433" s="13"/>
+      <c r="G433" s="13"/>
+      <c r="H433" s="13"/>
+      <c r="I433" s="13"/>
+      <c r="J433" s="13"/>
+    </row>
+    <row r="434" ht="20.35" customHeight="1">
+      <c r="A434" s="14"/>
+      <c r="B434" s="13"/>
+      <c r="C434" s="13"/>
+      <c r="D434" s="13"/>
+      <c r="E434" s="13"/>
+      <c r="F434" s="13"/>
+      <c r="G434" s="13"/>
+      <c r="H434" s="13"/>
+      <c r="I434" s="13"/>
+      <c r="J434" s="13"/>
+    </row>
+    <row r="435" ht="20.35" customHeight="1">
+      <c r="A435" s="14"/>
+      <c r="B435" s="13"/>
+      <c r="C435" s="13"/>
+      <c r="D435" s="13"/>
+      <c r="E435" s="13"/>
+      <c r="F435" s="13"/>
+      <c r="G435" s="13"/>
+      <c r="H435" s="13"/>
+      <c r="I435" s="13"/>
+      <c r="J435" s="13"/>
+    </row>
+    <row r="436" ht="20.35" customHeight="1">
+      <c r="A436" s="14"/>
+      <c r="B436" s="13"/>
+      <c r="C436" s="13"/>
+      <c r="D436" s="13"/>
+      <c r="E436" s="13"/>
+      <c r="F436" s="13"/>
+      <c r="G436" s="13"/>
+      <c r="H436" s="13"/>
+      <c r="I436" s="13"/>
+      <c r="J436" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="34">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="C157:G157"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C61:G61"/>
     <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C227:G227"/>
-    <mergeCell ref="C201:G201"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C181:G181"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="C157:G157"/>
-    <mergeCell ref="C139:G139"/>
-    <mergeCell ref="C348:G348"/>
-    <mergeCell ref="C340:G340"/>
-    <mergeCell ref="C362:G362"/>
-    <mergeCell ref="C322:G322"/>
-    <mergeCell ref="C290:G290"/>
-    <mergeCell ref="C247:G247"/>
-    <mergeCell ref="C309:G309"/>
-    <mergeCell ref="C269:G269"/>
-    <mergeCell ref="C302:G302"/>
-    <mergeCell ref="C208:G208"/>
-    <mergeCell ref="C215:G215"/>
-    <mergeCell ref="B226:J226"/>
-    <mergeCell ref="C296:G296"/>
-    <mergeCell ref="C316:G316"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C218:G218"/>
+    <mergeCell ref="C211:G211"/>
+    <mergeCell ref="C204:G204"/>
+    <mergeCell ref="C230:G230"/>
+    <mergeCell ref="B229:J229"/>
+    <mergeCell ref="C278:G278"/>
+    <mergeCell ref="C256:G256"/>
+    <mergeCell ref="C267:G267"/>
+    <mergeCell ref="C406:G406"/>
+    <mergeCell ref="C301:G301"/>
+    <mergeCell ref="C327:G327"/>
+    <mergeCell ref="C307:G307"/>
+    <mergeCell ref="C313:G313"/>
+    <mergeCell ref="C359:G359"/>
+    <mergeCell ref="C374:G374"/>
+    <mergeCell ref="C320:G320"/>
+    <mergeCell ref="C333:G333"/>
+    <mergeCell ref="C351:G351"/>
+    <mergeCell ref="C391:G391"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display=""/>
